--- a/St Kilda_stats.xlsx
+++ b/St Kilda_stats.xlsx
@@ -12496,7 +12496,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -16745,7 +16745,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -17352,7 +17352,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -17959,7 +17959,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -28885,7 +28885,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -30706,7 +30706,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -31313,7 +31313,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -33134,7 +33134,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -34348,7 +34348,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -34955,7 +34955,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -35562,7 +35562,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -36169,7 +36169,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -36776,7 +36776,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -37383,7 +37383,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -37990,7 +37990,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -38597,7 +38597,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -39204,7 +39204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -39811,7 +39811,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -40418,7 +40418,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -41025,7 +41025,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -41632,7 +41632,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -42239,7 +42239,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -42846,7 +42846,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -43453,7 +43453,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -44060,7 +44060,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -44667,7 +44667,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -45274,7 +45274,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -45881,7 +45881,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -46488,7 +46488,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -47095,7 +47095,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -47702,7 +47702,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -48309,7 +48309,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -48916,7 +48916,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -49523,7 +49523,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -50130,7 +50130,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -50737,7 +50737,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -51344,7 +51344,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -51951,7 +51951,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -52558,7 +52558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -53165,7 +53165,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -53772,7 +53772,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -54379,7 +54379,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -54986,7 +54986,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -55593,7 +55593,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -56200,7 +56200,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -56807,7 +56807,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -57414,7 +57414,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -58021,7 +58021,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -58628,7 +58628,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -59235,7 +59235,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -59842,7 +59842,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -60449,7 +60449,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -61056,7 +61056,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -61663,7 +61663,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/St Kilda_stats.xlsx
+++ b/St Kilda_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GS102"/>
+  <dimension ref="A1:GU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,6 +959,12 @@
       <c r="GS1" t="n">
         <v>9934</v>
       </c>
+      <c r="GT1" t="n">
+        <v>10134</v>
+      </c>
+      <c r="GU1" t="n">
+        <v>10138</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1566,6 +1572,12 @@
       <c r="GS2" t="n">
         <v>2020</v>
       </c>
+      <c r="GT2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2173,6 +2185,12 @@
       <c r="GS3" t="n">
         <v>1</v>
       </c>
+      <c r="GT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2780,6 +2798,12 @@
       <c r="GS4" t="n">
         <v>1</v>
       </c>
+      <c r="GT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3387,6 +3411,12 @@
       <c r="GS5" t="n">
         <v>0</v>
       </c>
+      <c r="GT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3994,6 +4024,12 @@
       <c r="GS6" t="n">
         <v>54</v>
       </c>
+      <c r="GT6" t="n">
+        <v>88</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4601,6 +4637,12 @@
       <c r="GS7" t="n">
         <v>56</v>
       </c>
+      <c r="GT7" t="n">
+        <v>49</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5208,6 +5250,12 @@
       <c r="GS8" t="n">
         <v>-2</v>
       </c>
+      <c r="GT8" t="n">
+        <v>39</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>-44</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5815,6 +5863,12 @@
       <c r="GS9" t="n">
         <v>0</v>
       </c>
+      <c r="GT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6422,6 +6476,12 @@
       <c r="GS10" t="n">
         <v>12</v>
       </c>
+      <c r="GT10" t="n">
+        <v>18</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7029,6 +7089,12 @@
       <c r="GS11" t="n">
         <v>167</v>
       </c>
+      <c r="GT11" t="n">
+        <v>204</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7636,6 +7702,12 @@
       <c r="GS12" t="n">
         <v>133</v>
       </c>
+      <c r="GT12" t="n">
+        <v>132</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8243,6 +8315,12 @@
       <c r="GS13" t="n">
         <v>300</v>
       </c>
+      <c r="GT13" t="n">
+        <v>336</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8850,6 +8928,12 @@
       <c r="GS14" t="n">
         <v>1.26</v>
       </c>
+      <c r="GT14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="GU14" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9457,6 +9541,12 @@
       <c r="GS15" t="n">
         <v>51</v>
       </c>
+      <c r="GT15" t="n">
+        <v>92</v>
+      </c>
+      <c r="GU15" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10064,6 +10154,12 @@
       <c r="GS16" t="n">
         <v>72</v>
       </c>
+      <c r="GT16" t="n">
+        <v>57</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10671,6 +10767,12 @@
       <c r="GS17" t="n">
         <v>26</v>
       </c>
+      <c r="GT17" t="n">
+        <v>49</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11278,6 +11380,12 @@
       <c r="GS18" t="n">
         <v>17</v>
       </c>
+      <c r="GT18" t="n">
+        <v>21</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11885,6 +11993,12 @@
       <c r="GS19" t="n">
         <v>21</v>
       </c>
+      <c r="GT19" t="n">
+        <v>15</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12492,6 +12606,12 @@
       <c r="GS20" t="n">
         <v>7</v>
       </c>
+      <c r="GT20" t="n">
+        <v>14</v>
+      </c>
+      <c r="GU20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13099,6 +13219,12 @@
       <c r="GS21" t="n">
         <v>5</v>
       </c>
+      <c r="GT21" t="n">
+        <v>11</v>
+      </c>
+      <c r="GU21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13706,6 +13832,12 @@
       <c r="GS22" t="n">
         <v>11</v>
       </c>
+      <c r="GT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14313,6 +14445,12 @@
       <c r="GS23" t="n">
         <v>1</v>
       </c>
+      <c r="GT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14920,6 +15058,12 @@
       <c r="GS24" t="n">
         <v>19</v>
       </c>
+      <c r="GT24" t="n">
+        <v>18</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15527,6 +15671,12 @@
       <c r="GS25" t="n">
         <v>36.8</v>
       </c>
+      <c r="GT25" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="GU25" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16134,6 +16284,12 @@
       <c r="GS26" t="n">
         <v>42.86</v>
       </c>
+      <c r="GT26" t="n">
+        <v>24</v>
+      </c>
+      <c r="GU26" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16741,6 +16897,12 @@
       <c r="GS27" t="n">
         <v>15.79</v>
       </c>
+      <c r="GT27" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="GU27" t="n">
+        <v>25.42</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17348,6 +17510,12 @@
       <c r="GS28" t="n">
         <v>25</v>
       </c>
+      <c r="GT28" t="n">
+        <v>32</v>
+      </c>
+      <c r="GU28" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17955,6 +18123,12 @@
       <c r="GS29" t="n">
         <v>50</v>
       </c>
+      <c r="GT29" t="n">
+        <v>44</v>
+      </c>
+      <c r="GU29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18562,6 +18736,12 @@
       <c r="GS30" t="n">
         <v>36</v>
       </c>
+      <c r="GT30" t="n">
+        <v>32</v>
+      </c>
+      <c r="GU30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19169,6 +19349,12 @@
       <c r="GS31" t="n">
         <v>40</v>
       </c>
+      <c r="GT31" t="n">
+        <v>40</v>
+      </c>
+      <c r="GU31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19776,6 +19962,12 @@
       <c r="GS32" t="n">
         <v>2.11</v>
       </c>
+      <c r="GT32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="GU32" t="n">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20383,6 +20575,12 @@
       <c r="GS33" t="n">
         <v>5.71</v>
       </c>
+      <c r="GT33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="GU33" t="n">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -20990,6 +21188,12 @@
       <c r="GS34" t="n">
         <v>45</v>
       </c>
+      <c r="GT34" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="GU34" t="n">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21597,6 +21801,12 @@
       <c r="GS35" t="n">
         <v>17.5</v>
       </c>
+      <c r="GT35" t="n">
+        <v>35</v>
+      </c>
+      <c r="GU35" t="n">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22204,6 +22414,12 @@
       <c r="GS36" t="n">
         <v>187.1</v>
       </c>
+      <c r="GT36" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="GU36" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -22811,6 +23027,12 @@
       <c r="GS37" t="n">
         <v>84.8</v>
       </c>
+      <c r="GT37" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="GU37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23418,6 +23640,12 @@
       <c r="GS38" t="n">
         <v>25.16</v>
       </c>
+      <c r="GT38" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="GU38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24025,6 +24253,12 @@
       <c r="GS39" t="n">
         <v>89.90000000000001</v>
       </c>
+      <c r="GT39" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="GU39" t="n">
+        <v>77.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24632,6 +24866,12 @@
       <c r="GS40" t="n">
         <v>8</v>
       </c>
+      <c r="GT40" t="n">
+        <v>10</v>
+      </c>
+      <c r="GU40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25239,6 +25479,12 @@
       <c r="GS41" t="n">
         <v>6</v>
       </c>
+      <c r="GT41" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -25846,6 +26092,12 @@
       <c r="GS42" t="n">
         <v>4</v>
       </c>
+      <c r="GT42" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26453,6 +26705,12 @@
       <c r="GS43" t="n">
         <v>4</v>
       </c>
+      <c r="GT43" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27060,6 +27318,12 @@
       <c r="GS44" t="n">
         <v>125</v>
       </c>
+      <c r="GT44" t="n">
+        <v>127</v>
+      </c>
+      <c r="GU44" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -27667,6 +27931,12 @@
       <c r="GS45" t="n">
         <v>163</v>
       </c>
+      <c r="GT45" t="n">
+        <v>209</v>
+      </c>
+      <c r="GU45" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28274,6 +28544,12 @@
       <c r="GS46" t="n">
         <v>196</v>
       </c>
+      <c r="GT46" t="n">
+        <v>246</v>
+      </c>
+      <c r="GU46" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -28881,6 +29157,12 @@
       <c r="GS47" t="n">
         <v>65.3</v>
       </c>
+      <c r="GT47" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="GU47" t="n">
+        <v>74.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29488,6 +29770,12 @@
       <c r="GS48" t="n">
         <v>50</v>
       </c>
+      <c r="GT48" t="n">
+        <v>44</v>
+      </c>
+      <c r="GU48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30095,6 +30383,12 @@
       <c r="GS49" t="n">
         <v>8</v>
       </c>
+      <c r="GT49" t="n">
+        <v>8</v>
+      </c>
+      <c r="GU49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -30702,6 +30996,12 @@
       <c r="GS50" t="n">
         <v>13</v>
       </c>
+      <c r="GT50" t="n">
+        <v>11</v>
+      </c>
+      <c r="GU50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31309,6 +31609,12 @@
       <c r="GS51" t="n">
         <v>25</v>
       </c>
+      <c r="GT51" t="n">
+        <v>32</v>
+      </c>
+      <c r="GU51" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -31916,6 +32222,12 @@
       <c r="GS52" t="n">
         <v>36</v>
       </c>
+      <c r="GT52" t="n">
+        <v>32</v>
+      </c>
+      <c r="GU52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -32523,6 +32835,12 @@
       <c r="GS53" t="n">
         <v>47</v>
       </c>
+      <c r="GT53" t="n">
+        <v>33</v>
+      </c>
+      <c r="GU53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33130,6 +33448,12 @@
       <c r="GS54" t="n">
         <v>3</v>
       </c>
+      <c r="GT54" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -33737,6 +34061,12 @@
       <c r="GS55" t="n">
         <v>5</v>
       </c>
+      <c r="GT55" t="n">
+        <v>11</v>
+      </c>
+      <c r="GU55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34344,6 +34674,12 @@
       <c r="GS56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="GT56" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="GU56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -34951,6 +35287,12 @@
       <c r="GS57" t="n">
         <v>155</v>
       </c>
+      <c r="GT57" t="n">
+        <v>142</v>
+      </c>
+      <c r="GU57" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -35558,6 +35900,12 @@
       <c r="GS58" t="n">
         <v>119</v>
       </c>
+      <c r="GT58" t="n">
+        <v>177</v>
+      </c>
+      <c r="GU58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36165,6 +36513,12 @@
       <c r="GS59" t="n">
         <v>274</v>
       </c>
+      <c r="GT59" t="n">
+        <v>319</v>
+      </c>
+      <c r="GU59" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -36772,6 +37126,12 @@
       <c r="GS60" t="n">
         <v>1.3</v>
       </c>
+      <c r="GT60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="GU60" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37379,6 +37739,12 @@
       <c r="GS61" t="n">
         <v>51</v>
       </c>
+      <c r="GT61" t="n">
+        <v>55</v>
+      </c>
+      <c r="GU61" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -37986,6 +38352,12 @@
       <c r="GS62" t="n">
         <v>51</v>
       </c>
+      <c r="GT62" t="n">
+        <v>49</v>
+      </c>
+      <c r="GU62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -38593,6 +38965,12 @@
       <c r="GS63" t="n">
         <v>28</v>
       </c>
+      <c r="GT63" t="n">
+        <v>12</v>
+      </c>
+      <c r="GU63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39200,6 +39578,12 @@
       <c r="GS64" t="n">
         <v>21</v>
       </c>
+      <c r="GT64" t="n">
+        <v>15</v>
+      </c>
+      <c r="GU64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -39807,6 +40191,12 @@
       <c r="GS65" t="n">
         <v>17</v>
       </c>
+      <c r="GT65" t="n">
+        <v>21</v>
+      </c>
+      <c r="GU65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -40414,6 +40804,12 @@
       <c r="GS66" t="n">
         <v>8</v>
       </c>
+      <c r="GT66" t="n">
+        <v>7</v>
+      </c>
+      <c r="GU66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41021,6 +41417,12 @@
       <c r="GS67" t="n">
         <v>8</v>
       </c>
+      <c r="GT67" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -41628,6 +42030,12 @@
       <c r="GS68" t="n">
         <v>7</v>
       </c>
+      <c r="GT68" t="n">
+        <v>6</v>
+      </c>
+      <c r="GU68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42235,6 +42643,12 @@
       <c r="GS69" t="n">
         <v>1</v>
       </c>
+      <c r="GT69" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -42842,6 +43256,12 @@
       <c r="GS70" t="n">
         <v>16</v>
       </c>
+      <c r="GT70" t="n">
+        <v>14</v>
+      </c>
+      <c r="GU70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -43449,6 +43869,12 @@
       <c r="GS71" t="n">
         <v>50</v>
       </c>
+      <c r="GT71" t="n">
+        <v>50</v>
+      </c>
+      <c r="GU71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44056,6 +44482,12 @@
       <c r="GS72" t="n">
         <v>34.25</v>
       </c>
+      <c r="GT72" t="n">
+        <v>45.57</v>
+      </c>
+      <c r="GU72" t="n">
+        <v>28.92</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -44663,6 +45095,12 @@
       <c r="GS73" t="n">
         <v>17.12</v>
       </c>
+      <c r="GT73" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="GU73" t="n">
+        <v>16.52</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45270,6 +45708,12 @@
       <c r="GS74" t="n">
         <v>30</v>
       </c>
+      <c r="GT74" t="n">
+        <v>29</v>
+      </c>
+      <c r="GU74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -45877,6 +46321,12 @@
       <c r="GS75" t="n">
         <v>46</v>
       </c>
+      <c r="GT75" t="n">
+        <v>58</v>
+      </c>
+      <c r="GU75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -46484,6 +46934,12 @@
       <c r="GS76" t="n">
         <v>30</v>
       </c>
+      <c r="GT76" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -47091,6 +47547,12 @@
       <c r="GS77" t="n">
         <v>44</v>
       </c>
+      <c r="GT77" t="n">
+        <v>39</v>
+      </c>
+      <c r="GU77" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -47698,6 +48160,12 @@
       <c r="GS78" t="n">
         <v>2.75</v>
       </c>
+      <c r="GT78" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="GU78" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -48305,6 +48773,12 @@
       <c r="GS79" t="n">
         <v>5.5</v>
       </c>
+      <c r="GT79" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="GU79" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -48912,6 +49386,12 @@
       <c r="GS80" t="n">
         <v>34.1</v>
       </c>
+      <c r="GT80" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="GU80" t="n">
+        <v>52.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -49519,6 +49999,12 @@
       <c r="GS81" t="n">
         <v>18.2</v>
       </c>
+      <c r="GT81" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="GU81" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -50126,6 +50612,12 @@
       <c r="GS82" t="n">
         <v>189</v>
       </c>
+      <c r="GT82" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="GU82" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -50733,6 +51225,12 @@
       <c r="GS83" t="n">
         <v>87.7</v>
       </c>
+      <c r="GT83" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="GU83" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -51340,6 +51838,12 @@
       <c r="GS84" t="n">
         <v>26.16</v>
       </c>
+      <c r="GT84" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="GU84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -51947,6 +52451,12 @@
       <c r="GS85" t="n">
         <v>108.6</v>
       </c>
+      <c r="GT85" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="GU85" t="n">
+        <v>102.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -52554,6 +53064,12 @@
       <c r="GS86" t="n">
         <v>6</v>
       </c>
+      <c r="GT86" t="n">
+        <v>10</v>
+      </c>
+      <c r="GU86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -53161,6 +53677,12 @@
       <c r="GS87" t="n">
         <v>4</v>
       </c>
+      <c r="GT87" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -53768,6 +54290,12 @@
       <c r="GS88" t="n">
         <v>6</v>
       </c>
+      <c r="GT88" t="n">
+        <v>6</v>
+      </c>
+      <c r="GU88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -54375,6 +54903,12 @@
       <c r="GS89" t="n">
         <v>6</v>
       </c>
+      <c r="GT89" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -54982,6 +55516,12 @@
       <c r="GS90" t="n">
         <v>130</v>
       </c>
+      <c r="GT90" t="n">
+        <v>115</v>
+      </c>
+      <c r="GU90" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -55589,6 +56129,12 @@
       <c r="GS91" t="n">
         <v>144</v>
       </c>
+      <c r="GT91" t="n">
+        <v>205</v>
+      </c>
+      <c r="GU91" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -56196,6 +56742,12 @@
       <c r="GS92" t="n">
         <v>195</v>
       </c>
+      <c r="GT92" t="n">
+        <v>228</v>
+      </c>
+      <c r="GU92" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -56803,6 +57355,12 @@
       <c r="GS93" t="n">
         <v>71.2</v>
       </c>
+      <c r="GT93" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="GU93" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -57410,6 +57968,12 @@
       <c r="GS94" t="n">
         <v>46</v>
       </c>
+      <c r="GT94" t="n">
+        <v>58</v>
+      </c>
+      <c r="GU94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -58017,6 +58581,12 @@
       <c r="GS95" t="n">
         <v>6</v>
       </c>
+      <c r="GT95" t="n">
+        <v>9</v>
+      </c>
+      <c r="GU95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -58624,6 +59194,12 @@
       <c r="GS96" t="n">
         <v>12</v>
       </c>
+      <c r="GT96" t="n">
+        <v>9</v>
+      </c>
+      <c r="GU96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -59231,6 +59807,12 @@
       <c r="GS97" t="n">
         <v>30</v>
       </c>
+      <c r="GT97" t="n">
+        <v>29</v>
+      </c>
+      <c r="GU97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -59838,6 +60420,12 @@
       <c r="GS98" t="n">
         <v>30</v>
       </c>
+      <c r="GT98" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -60445,6 +61033,12 @@
       <c r="GS99" t="n">
         <v>40</v>
       </c>
+      <c r="GT99" t="n">
+        <v>44</v>
+      </c>
+      <c r="GU99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -61052,6 +61646,12 @@
       <c r="GS100" t="n">
         <v>1</v>
       </c>
+      <c r="GT100" t="n">
+        <v>3</v>
+      </c>
+      <c r="GU100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -61659,6 +62259,12 @@
       <c r="GS101" t="n">
         <v>8</v>
       </c>
+      <c r="GT101" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -62266,8 +62872,14 @@
       <c r="GS102" t="n">
         <v>100</v>
       </c>
+      <c r="GT102" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="GU102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/St Kilda_stats.xlsx
+++ b/St Kilda_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GU102"/>
+  <dimension ref="A1:GV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,6 +965,9 @@
       <c r="GU1" t="n">
         <v>10138</v>
       </c>
+      <c r="GV1" t="n">
+        <v>10147</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1578,6 +1581,9 @@
       <c r="GU2" t="n">
         <v>2020</v>
       </c>
+      <c r="GV2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2191,6 +2197,9 @@
       <c r="GU3" t="n">
         <v>3</v>
       </c>
+      <c r="GV3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2804,6 +2813,9 @@
       <c r="GU4" t="n">
         <v>1</v>
       </c>
+      <c r="GV4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3417,6 +3429,9 @@
       <c r="GU5" t="n">
         <v>0</v>
       </c>
+      <c r="GV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4030,6 +4045,9 @@
       <c r="GU6" t="n">
         <v>37</v>
       </c>
+      <c r="GV6" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4643,6 +4661,9 @@
       <c r="GU7" t="n">
         <v>81</v>
       </c>
+      <c r="GV7" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5256,6 +5277,9 @@
       <c r="GU8" t="n">
         <v>-44</v>
       </c>
+      <c r="GV8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5869,6 +5893,9 @@
       <c r="GU9" t="n">
         <v>0</v>
       </c>
+      <c r="GV9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6482,6 +6509,9 @@
       <c r="GU10" t="n">
         <v>4</v>
       </c>
+      <c r="GV10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7095,6 +7125,9 @@
       <c r="GU11" t="n">
         <v>185</v>
       </c>
+      <c r="GV11" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7708,6 +7741,9 @@
       <c r="GU12" t="n">
         <v>120</v>
       </c>
+      <c r="GV12" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8321,6 +8357,9 @@
       <c r="GU13" t="n">
         <v>305</v>
       </c>
+      <c r="GV13" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8934,6 +8973,9 @@
       <c r="GU14" t="n">
         <v>1.54</v>
       </c>
+      <c r="GV14" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9547,6 +9589,9 @@
       <c r="GU15" t="n">
         <v>95</v>
       </c>
+      <c r="GV15" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10160,6 +10205,9 @@
       <c r="GU16" t="n">
         <v>43</v>
       </c>
+      <c r="GV16" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10773,6 +10821,9 @@
       <c r="GU17" t="n">
         <v>29</v>
       </c>
+      <c r="GV17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11386,6 +11437,9 @@
       <c r="GU18" t="n">
         <v>19</v>
       </c>
+      <c r="GV18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11999,6 +12053,9 @@
       <c r="GU19" t="n">
         <v>17</v>
       </c>
+      <c r="GV19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12612,6 +12669,9 @@
       <c r="GU20" t="n">
         <v>5</v>
       </c>
+      <c r="GV20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13225,6 +13285,9 @@
       <c r="GU21" t="n">
         <v>3</v>
       </c>
+      <c r="GV21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13838,6 +13901,9 @@
       <c r="GU22" t="n">
         <v>6</v>
       </c>
+      <c r="GV22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14451,6 +14517,9 @@
       <c r="GU23" t="n">
         <v>1</v>
       </c>
+      <c r="GV23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15064,6 +15133,9 @@
       <c r="GU24" t="n">
         <v>12</v>
       </c>
+      <c r="GV24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15677,6 +15749,9 @@
       <c r="GU25" t="n">
         <v>41.7</v>
       </c>
+      <c r="GV25" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16290,6 +16365,9 @@
       <c r="GU26" t="n">
         <v>61</v>
       </c>
+      <c r="GV26" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16903,6 +16981,9 @@
       <c r="GU27" t="n">
         <v>25.42</v>
       </c>
+      <c r="GV27" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17516,6 +17597,9 @@
       <c r="GU28" t="n">
         <v>21</v>
       </c>
+      <c r="GV28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18129,6 +18213,9 @@
       <c r="GU29" t="n">
         <v>48</v>
       </c>
+      <c r="GV29" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18742,6 +18829,9 @@
       <c r="GU30" t="n">
         <v>28</v>
       </c>
+      <c r="GV30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19355,6 +19445,9 @@
       <c r="GU31" t="n">
         <v>34</v>
       </c>
+      <c r="GV31" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -19968,6 +20061,9 @@
       <c r="GU32" t="n">
         <v>2.83</v>
       </c>
+      <c r="GV32" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20581,6 +20677,9 @@
       <c r="GU33" t="n">
         <v>6.8</v>
       </c>
+      <c r="GV33" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21194,6 +21293,9 @@
       <c r="GU34" t="n">
         <v>32.4</v>
       </c>
+      <c r="GV34" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21807,6 +21909,9 @@
       <c r="GU35" t="n">
         <v>14.7</v>
       </c>
+      <c r="GV35" t="n">
+        <v>39.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22420,6 +22525,9 @@
       <c r="GU36" t="n">
         <v>188.1</v>
       </c>
+      <c r="GV36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23033,6 +23141,9 @@
       <c r="GU37" t="n">
         <v>85.3</v>
       </c>
+      <c r="GV37" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23646,6 +23757,9 @@
       <c r="GU38" t="n">
         <v>24.8</v>
       </c>
+      <c r="GV38" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24259,6 +24373,9 @@
       <c r="GU39" t="n">
         <v>77.5</v>
       </c>
+      <c r="GV39" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24872,6 +24989,9 @@
       <c r="GU40" t="n">
         <v>11</v>
       </c>
+      <c r="GV40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25485,6 +25605,9 @@
       <c r="GU41" t="n">
         <v>5</v>
       </c>
+      <c r="GV41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26098,6 +26221,9 @@
       <c r="GU42" t="n">
         <v>3</v>
       </c>
+      <c r="GV42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26711,6 +26837,9 @@
       <c r="GU43" t="n">
         <v>3</v>
       </c>
+      <c r="GV43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27324,6 +27453,9 @@
       <c r="GU44" t="n">
         <v>109</v>
       </c>
+      <c r="GV44" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -27937,6 +28069,9 @@
       <c r="GU45" t="n">
         <v>197</v>
       </c>
+      <c r="GV45" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28550,6 +28685,9 @@
       <c r="GU46" t="n">
         <v>227</v>
       </c>
+      <c r="GV46" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29163,6 +29301,9 @@
       <c r="GU47" t="n">
         <v>74.40000000000001</v>
       </c>
+      <c r="GV47" t="n">
+        <v>70.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29776,6 +29917,9 @@
       <c r="GU48" t="n">
         <v>48</v>
       </c>
+      <c r="GV48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30389,6 +30533,9 @@
       <c r="GU49" t="n">
         <v>8</v>
       </c>
+      <c r="GV49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31002,6 +31149,9 @@
       <c r="GU50" t="n">
         <v>5</v>
       </c>
+      <c r="GV50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31615,6 +31765,9 @@
       <c r="GU51" t="n">
         <v>21</v>
       </c>
+      <c r="GV51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32228,6 +32381,9 @@
       <c r="GU52" t="n">
         <v>28</v>
       </c>
+      <c r="GV52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -32841,6 +32997,9 @@
       <c r="GU53" t="n">
         <v>41</v>
       </c>
+      <c r="GV53" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33454,6 +33613,9 @@
       <c r="GU54" t="n">
         <v>3</v>
       </c>
+      <c r="GV54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34067,6 +34229,9 @@
       <c r="GU55" t="n">
         <v>3</v>
       </c>
+      <c r="GV55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34680,6 +34845,9 @@
       <c r="GU56" t="n">
         <v>60</v>
       </c>
+      <c r="GV56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35293,6 +35461,9 @@
       <c r="GU57" t="n">
         <v>194</v>
       </c>
+      <c r="GV57" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -35906,6 +36077,9 @@
       <c r="GU58" t="n">
         <v>153</v>
       </c>
+      <c r="GV58" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36519,6 +36693,9 @@
       <c r="GU59" t="n">
         <v>347</v>
       </c>
+      <c r="GV59" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37132,6 +37309,9 @@
       <c r="GU60" t="n">
         <v>1.27</v>
       </c>
+      <c r="GV60" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37745,6 +37925,9 @@
       <c r="GU61" t="n">
         <v>101</v>
       </c>
+      <c r="GV61" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38358,6 +38541,9 @@
       <c r="GU62" t="n">
         <v>55</v>
       </c>
+      <c r="GV62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -38971,6 +39157,9 @@
       <c r="GU63" t="n">
         <v>34</v>
       </c>
+      <c r="GV63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39584,6 +39773,9 @@
       <c r="GU64" t="n">
         <v>17</v>
       </c>
+      <c r="GV64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40197,6 +40389,9 @@
       <c r="GU65" t="n">
         <v>19</v>
       </c>
+      <c r="GV65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -40810,6 +41005,9 @@
       <c r="GU66" t="n">
         <v>12</v>
       </c>
+      <c r="GV66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41423,6 +41621,9 @@
       <c r="GU67" t="n">
         <v>8</v>
       </c>
+      <c r="GV67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42036,6 +42237,9 @@
       <c r="GU68" t="n">
         <v>9</v>
       </c>
+      <c r="GV68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42649,6 +42853,9 @@
       <c r="GU69" t="n">
         <v>0</v>
       </c>
+      <c r="GV69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43262,6 +43469,9 @@
       <c r="GU70" t="n">
         <v>21</v>
       </c>
+      <c r="GV70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -43875,6 +44085,9 @@
       <c r="GU71" t="n">
         <v>57.1</v>
       </c>
+      <c r="GV71" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44488,6 +44701,9 @@
       <c r="GU72" t="n">
         <v>28.92</v>
       </c>
+      <c r="GV72" t="n">
+        <v>31.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45101,6 +45317,9 @@
       <c r="GU73" t="n">
         <v>16.52</v>
       </c>
+      <c r="GV73" t="n">
+        <v>18.41</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45714,6 +45933,9 @@
       <c r="GU74" t="n">
         <v>32</v>
       </c>
+      <c r="GV74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46327,6 +46549,9 @@
       <c r="GU75" t="n">
         <v>47</v>
       </c>
+      <c r="GV75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -46940,6 +47165,9 @@
       <c r="GU76" t="n">
         <v>27</v>
       </c>
+      <c r="GV76" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -47553,6 +47781,9 @@
       <c r="GU77" t="n">
         <v>40</v>
       </c>
+      <c r="GV77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48166,6 +48397,9 @@
       <c r="GU78" t="n">
         <v>1.9</v>
       </c>
+      <c r="GV78" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -48779,6 +49013,9 @@
       <c r="GU79" t="n">
         <v>3.33</v>
       </c>
+      <c r="GV79" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49392,6 +49629,9 @@
       <c r="GU80" t="n">
         <v>52.5</v>
       </c>
+      <c r="GV80" t="n">
+        <v>43.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50005,6 +50245,9 @@
       <c r="GU81" t="n">
         <v>30</v>
       </c>
+      <c r="GV81" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -50618,6 +50861,9 @@
       <c r="GU82" t="n">
         <v>189</v>
       </c>
+      <c r="GV82" t="n">
+        <v>185.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51231,6 +51477,9 @@
       <c r="GU83" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="GV83" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -51844,6 +52093,9 @@
       <c r="GU84" t="n">
         <v>26</v>
       </c>
+      <c r="GV84" t="n">
+        <v>26.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52457,6 +52709,9 @@
       <c r="GU85" t="n">
         <v>102.9</v>
       </c>
+      <c r="GV85" t="n">
+        <v>123.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53070,6 +53325,9 @@
       <c r="GU86" t="n">
         <v>8</v>
       </c>
+      <c r="GV86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -53683,6 +53941,9 @@
       <c r="GU87" t="n">
         <v>3</v>
       </c>
+      <c r="GV87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54296,6 +54557,9 @@
       <c r="GU88" t="n">
         <v>6</v>
       </c>
+      <c r="GV88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -54909,6 +55173,9 @@
       <c r="GU89" t="n">
         <v>5</v>
       </c>
+      <c r="GV89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -55522,6 +55789,9 @@
       <c r="GU90" t="n">
         <v>112</v>
       </c>
+      <c r="GV90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56135,6 +56405,9 @@
       <c r="GU91" t="n">
         <v>234</v>
       </c>
+      <c r="GV91" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -56748,6 +57021,9 @@
       <c r="GU92" t="n">
         <v>267</v>
       </c>
+      <c r="GV92" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57361,6 +57637,9 @@
       <c r="GU93" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="GV93" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -57974,6 +58253,9 @@
       <c r="GU94" t="n">
         <v>47</v>
       </c>
+      <c r="GV94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -58587,6 +58869,9 @@
       <c r="GU95" t="n">
         <v>11</v>
       </c>
+      <c r="GV95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -59200,6 +59485,9 @@
       <c r="GU96" t="n">
         <v>8</v>
       </c>
+      <c r="GV96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -59813,6 +60101,9 @@
       <c r="GU97" t="n">
         <v>32</v>
       </c>
+      <c r="GV97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -60426,6 +60717,9 @@
       <c r="GU98" t="n">
         <v>27</v>
       </c>
+      <c r="GV98" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61039,6 +61333,9 @@
       <c r="GU99" t="n">
         <v>49</v>
       </c>
+      <c r="GV99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -61652,6 +61949,9 @@
       <c r="GU100" t="n">
         <v>0</v>
       </c>
+      <c r="GV100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -62265,6 +62565,9 @@
       <c r="GU101" t="n">
         <v>8</v>
       </c>
+      <c r="GV101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -62878,8 +63181,11 @@
       <c r="GU102" t="n">
         <v>66.7</v>
       </c>
+      <c r="GV102" t="n">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/St Kilda_stats.xlsx
+++ b/St Kilda_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GV102"/>
+  <dimension ref="A1:GW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,6 +968,9 @@
       <c r="GV1" t="n">
         <v>10147</v>
       </c>
+      <c r="GW1" t="n">
+        <v>10182</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1584,6 +1587,9 @@
       <c r="GV2" t="n">
         <v>2020</v>
       </c>
+      <c r="GW2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2200,6 +2206,9 @@
       <c r="GV3" t="n">
         <v>4</v>
       </c>
+      <c r="GW3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2816,6 +2825,9 @@
       <c r="GV4" t="n">
         <v>0</v>
       </c>
+      <c r="GW4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3432,6 +3444,9 @@
       <c r="GV5" t="n">
         <v>0</v>
       </c>
+      <c r="GW5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4048,6 +4063,9 @@
       <c r="GV6" t="n">
         <v>93</v>
       </c>
+      <c r="GW6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4664,6 +4682,9 @@
       <c r="GV7" t="n">
         <v>67</v>
       </c>
+      <c r="GW7" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5280,6 +5301,9 @@
       <c r="GV8" t="n">
         <v>26</v>
       </c>
+      <c r="GW8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5896,6 +5920,9 @@
       <c r="GV9" t="n">
         <v>1</v>
       </c>
+      <c r="GW9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6512,6 +6539,9 @@
       <c r="GV10" t="n">
         <v>14</v>
       </c>
+      <c r="GW10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7128,6 +7158,9 @@
       <c r="GV11" t="n">
         <v>183</v>
       </c>
+      <c r="GW11" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7744,6 +7777,9 @@
       <c r="GV12" t="n">
         <v>132</v>
       </c>
+      <c r="GW12" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8360,6 +8396,9 @@
       <c r="GV13" t="n">
         <v>315</v>
       </c>
+      <c r="GW13" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8976,6 +9015,9 @@
       <c r="GV14" t="n">
         <v>1.39</v>
       </c>
+      <c r="GW14" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9592,6 +9634,9 @@
       <c r="GV15" t="n">
         <v>82</v>
       </c>
+      <c r="GW15" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10208,6 +10253,9 @@
       <c r="GV16" t="n">
         <v>51</v>
       </c>
+      <c r="GW16" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10824,6 +10872,9 @@
       <c r="GV17" t="n">
         <v>31</v>
       </c>
+      <c r="GW17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11440,6 +11491,9 @@
       <c r="GV18" t="n">
         <v>15</v>
       </c>
+      <c r="GW18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12056,6 +12110,9 @@
       <c r="GV19" t="n">
         <v>15</v>
       </c>
+      <c r="GW19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12672,6 +12729,9 @@
       <c r="GV20" t="n">
         <v>15</v>
       </c>
+      <c r="GW20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13288,6 +13348,9 @@
       <c r="GV21" t="n">
         <v>9</v>
       </c>
+      <c r="GW21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13904,6 +13967,9 @@
       <c r="GV22" t="n">
         <v>3</v>
       </c>
+      <c r="GW22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14520,6 +14586,9 @@
       <c r="GV23" t="n">
         <v>0</v>
       </c>
+      <c r="GW23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15136,6 +15205,9 @@
       <c r="GV24" t="n">
         <v>18</v>
       </c>
+      <c r="GW24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15752,6 +15824,9 @@
       <c r="GV25" t="n">
         <v>83.3</v>
       </c>
+      <c r="GW25" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16368,6 +16443,9 @@
       <c r="GV26" t="n">
         <v>21</v>
       </c>
+      <c r="GW26" t="n">
+        <v>26.18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -16984,6 +17062,9 @@
       <c r="GV27" t="n">
         <v>17.5</v>
       </c>
+      <c r="GW27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17600,6 +17681,9 @@
       <c r="GV28" t="n">
         <v>33</v>
       </c>
+      <c r="GW28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18216,6 +18300,9 @@
       <c r="GV29" t="n">
         <v>47</v>
       </c>
+      <c r="GW29" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18832,6 +18919,9 @@
       <c r="GV30" t="n">
         <v>28</v>
       </c>
+      <c r="GW30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19448,6 +19538,9 @@
       <c r="GV31" t="n">
         <v>38</v>
       </c>
+      <c r="GW31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20064,6 +20157,9 @@
       <c r="GV32" t="n">
         <v>2.11</v>
       </c>
+      <c r="GW32" t="n">
+        <v>2.22</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20680,6 +20776,9 @@
       <c r="GV33" t="n">
         <v>2.53</v>
       </c>
+      <c r="GW33" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21296,6 +21395,9 @@
       <c r="GV34" t="n">
         <v>47.4</v>
       </c>
+      <c r="GW34" t="n">
+        <v>42.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21912,6 +22014,9 @@
       <c r="GV35" t="n">
         <v>39.5</v>
       </c>
+      <c r="GW35" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22528,6 +22633,9 @@
       <c r="GV36" t="n">
         <v>188</v>
       </c>
+      <c r="GW36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23144,6 +23252,9 @@
       <c r="GV37" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="GW37" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23760,6 +23871,9 @@
       <c r="GV38" t="n">
         <v>24.33</v>
       </c>
+      <c r="GW38" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24376,6 +24490,9 @@
       <c r="GV39" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="GW39" t="n">
+        <v>76.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -24992,6 +25109,9 @@
       <c r="GV40" t="n">
         <v>11</v>
       </c>
+      <c r="GW40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25608,6 +25728,9 @@
       <c r="GV41" t="n">
         <v>6</v>
       </c>
+      <c r="GW41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26224,6 +26347,9 @@
       <c r="GV42" t="n">
         <v>3</v>
       </c>
+      <c r="GW42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26840,6 +26966,9 @@
       <c r="GV43" t="n">
         <v>2</v>
       </c>
+      <c r="GW43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27456,6 +27585,9 @@
       <c r="GV44" t="n">
         <v>118</v>
       </c>
+      <c r="GW44" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28072,6 +28204,9 @@
       <c r="GV45" t="n">
         <v>186</v>
       </c>
+      <c r="GW45" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28688,6 +28823,9 @@
       <c r="GV46" t="n">
         <v>222</v>
       </c>
+      <c r="GW46" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29304,6 +29442,9 @@
       <c r="GV47" t="n">
         <v>70.5</v>
       </c>
+      <c r="GW47" t="n">
+        <v>76.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -29920,6 +30061,9 @@
       <c r="GV48" t="n">
         <v>47</v>
       </c>
+      <c r="GW48" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30536,6 +30680,9 @@
       <c r="GV49" t="n">
         <v>12</v>
       </c>
+      <c r="GW49" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31152,6 +31299,9 @@
       <c r="GV50" t="n">
         <v>10</v>
       </c>
+      <c r="GW50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31768,6 +31918,9 @@
       <c r="GV51" t="n">
         <v>33</v>
       </c>
+      <c r="GW51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32384,6 +32537,9 @@
       <c r="GV52" t="n">
         <v>28</v>
       </c>
+      <c r="GW52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33000,6 +33156,9 @@
       <c r="GV53" t="n">
         <v>36</v>
       </c>
+      <c r="GW53" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33616,6 +33775,9 @@
       <c r="GV54" t="n">
         <v>0</v>
       </c>
+      <c r="GW54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34232,6 +34394,9 @@
       <c r="GV55" t="n">
         <v>9</v>
       </c>
+      <c r="GW55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -34848,6 +35013,9 @@
       <c r="GV56" t="n">
         <v>60</v>
       </c>
+      <c r="GW56" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35464,6 +35632,9 @@
       <c r="GV57" t="n">
         <v>149</v>
       </c>
+      <c r="GW57" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36080,6 +36251,9 @@
       <c r="GV58" t="n">
         <v>164</v>
       </c>
+      <c r="GW58" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36696,6 +36870,9 @@
       <c r="GV59" t="n">
         <v>313</v>
       </c>
+      <c r="GW59" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37312,6 +37489,9 @@
       <c r="GV60" t="n">
         <v>0.91</v>
       </c>
+      <c r="GW60" t="n">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -37928,6 +38108,9 @@
       <c r="GV61" t="n">
         <v>62</v>
       </c>
+      <c r="GW61" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38544,6 +38727,9 @@
       <c r="GV62" t="n">
         <v>51</v>
       </c>
+      <c r="GW62" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39160,6 +39346,9 @@
       <c r="GV63" t="n">
         <v>26</v>
       </c>
+      <c r="GW63" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39776,6 +39965,9 @@
       <c r="GV64" t="n">
         <v>15</v>
       </c>
+      <c r="GW64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40392,6 +40584,9 @@
       <c r="GV65" t="n">
         <v>15</v>
       </c>
+      <c r="GW65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41008,6 +41203,9 @@
       <c r="GV66" t="n">
         <v>10</v>
       </c>
+      <c r="GW66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41624,6 +41822,9 @@
       <c r="GV67" t="n">
         <v>9</v>
       </c>
+      <c r="GW67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42240,6 +42441,9 @@
       <c r="GV68" t="n">
         <v>7</v>
       </c>
+      <c r="GW68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42856,6 +43060,9 @@
       <c r="GV69" t="n">
         <v>0</v>
       </c>
+      <c r="GW69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43472,6 +43679,9 @@
       <c r="GV70" t="n">
         <v>17</v>
       </c>
+      <c r="GW70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44088,6 +44298,9 @@
       <c r="GV71" t="n">
         <v>58.8</v>
       </c>
+      <c r="GW71" t="n">
+        <v>53.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44704,6 +44917,9 @@
       <c r="GV72" t="n">
         <v>31.3</v>
       </c>
+      <c r="GW72" t="n">
+        <v>33.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45320,6 +45536,9 @@
       <c r="GV73" t="n">
         <v>18.41</v>
       </c>
+      <c r="GW73" t="n">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -45936,6 +46155,9 @@
       <c r="GV74" t="n">
         <v>29</v>
       </c>
+      <c r="GW74" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46552,6 +46774,9 @@
       <c r="GV75" t="n">
         <v>53</v>
       </c>
+      <c r="GW75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47168,6 +47393,9 @@
       <c r="GV76" t="n">
         <v>23</v>
       </c>
+      <c r="GW76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -47784,6 +48012,9 @@
       <c r="GV77" t="n">
         <v>39</v>
       </c>
+      <c r="GW77" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48400,6 +48631,9 @@
       <c r="GV78" t="n">
         <v>2.29</v>
       </c>
+      <c r="GW78" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49016,6 +49250,9 @@
       <c r="GV79" t="n">
         <v>3.9</v>
       </c>
+      <c r="GW79" t="n">
+        <v>4.12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49632,6 +49869,9 @@
       <c r="GV80" t="n">
         <v>43.6</v>
       </c>
+      <c r="GW80" t="n">
+        <v>42.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50248,6 +50488,9 @@
       <c r="GV81" t="n">
         <v>25.6</v>
       </c>
+      <c r="GW81" t="n">
+        <v>24.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -50864,6 +51107,9 @@
       <c r="GV82" t="n">
         <v>185.1</v>
       </c>
+      <c r="GW82" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51480,6 +51726,9 @@
       <c r="GV83" t="n">
         <v>85.3</v>
       </c>
+      <c r="GW83" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52096,6 +52345,9 @@
       <c r="GV84" t="n">
         <v>26.49</v>
       </c>
+      <c r="GW84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52712,6 +52964,9 @@
       <c r="GV85" t="n">
         <v>123.2</v>
       </c>
+      <c r="GW85" t="n">
+        <v>105.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53328,6 +53583,9 @@
       <c r="GV86" t="n">
         <v>5</v>
       </c>
+      <c r="GW86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -53944,6 +54202,9 @@
       <c r="GV87" t="n">
         <v>6</v>
       </c>
+      <c r="GW87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54560,6 +54821,9 @@
       <c r="GV88" t="n">
         <v>2</v>
       </c>
+      <c r="GW88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55176,6 +55440,9 @@
       <c r="GV89" t="n">
         <v>9</v>
       </c>
+      <c r="GW89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -55792,6 +56059,9 @@
       <c r="GV90" t="n">
         <v>118</v>
       </c>
+      <c r="GW90" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56408,6 +56678,9 @@
       <c r="GV91" t="n">
         <v>202</v>
       </c>
+      <c r="GW91" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57024,6 +57297,9 @@
       <c r="GV92" t="n">
         <v>221</v>
       </c>
+      <c r="GW92" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57640,6 +57916,9 @@
       <c r="GV93" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="GW93" t="n">
+        <v>76.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -58256,6 +58535,9 @@
       <c r="GV94" t="n">
         <v>53</v>
       </c>
+      <c r="GW94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -58872,6 +59154,9 @@
       <c r="GV95" t="n">
         <v>6</v>
       </c>
+      <c r="GW95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -59488,6 +59773,9 @@
       <c r="GV96" t="n">
         <v>8</v>
       </c>
+      <c r="GW96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60104,6 +60392,9 @@
       <c r="GV97" t="n">
         <v>29</v>
       </c>
+      <c r="GW97" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -60720,6 +61011,9 @@
       <c r="GV98" t="n">
         <v>23</v>
       </c>
+      <c r="GW98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61336,6 +61630,9 @@
       <c r="GV99" t="n">
         <v>47</v>
       </c>
+      <c r="GW99" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -61952,6 +62249,9 @@
       <c r="GV100" t="n">
         <v>1</v>
       </c>
+      <c r="GW100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -62568,6 +62868,9 @@
       <c r="GV101" t="n">
         <v>9</v>
       </c>
+      <c r="GW101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -63184,6 +63487,9 @@
       <c r="GV102" t="n">
         <v>90</v>
       </c>
+      <c r="GW102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/St Kilda_stats.xlsx
+++ b/St Kilda_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GW102"/>
+  <dimension ref="A1:GZ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,6 +971,15 @@
       <c r="GW1" t="n">
         <v>10182</v>
       </c>
+      <c r="GX1" t="n">
+        <v>10211</v>
+      </c>
+      <c r="GY1" t="n">
+        <v>10226</v>
+      </c>
+      <c r="GZ1" t="n">
+        <v>10231</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1590,6 +1599,15 @@
       <c r="GW2" t="n">
         <v>2020</v>
       </c>
+      <c r="GX2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2209,6 +2227,15 @@
       <c r="GW3" t="n">
         <v>5</v>
       </c>
+      <c r="GX3" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>7</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2828,6 +2855,15 @@
       <c r="GW4" t="n">
         <v>1</v>
       </c>
+      <c r="GX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3447,6 +3483,15 @@
       <c r="GW5" t="n">
         <v>1</v>
       </c>
+      <c r="GX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4066,6 +4111,15 @@
       <c r="GW6" t="n">
         <v>73</v>
       </c>
+      <c r="GX6" t="n">
+        <v>73</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>78</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4685,6 +4739,15 @@
       <c r="GW7" t="n">
         <v>55</v>
       </c>
+      <c r="GX7" t="n">
+        <v>79</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>55</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5304,6 +5367,15 @@
       <c r="GW8" t="n">
         <v>18</v>
       </c>
+      <c r="GX8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5923,6 +5995,15 @@
       <c r="GW9" t="n">
         <v>1</v>
       </c>
+      <c r="GX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6542,6 +6623,15 @@
       <c r="GW10" t="n">
         <v>3</v>
       </c>
+      <c r="GX10" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7161,6 +7251,15 @@
       <c r="GW11" t="n">
         <v>185</v>
       </c>
+      <c r="GX11" t="n">
+        <v>165</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>175</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7780,6 +7879,15 @@
       <c r="GW12" t="n">
         <v>103</v>
       </c>
+      <c r="GX12" t="n">
+        <v>105</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>82</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8399,6 +8507,15 @@
       <c r="GW13" t="n">
         <v>288</v>
       </c>
+      <c r="GX13" t="n">
+        <v>270</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>257</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9018,6 +9135,15 @@
       <c r="GW14" t="n">
         <v>1.8</v>
       </c>
+      <c r="GX14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9637,6 +9763,15 @@
       <c r="GW15" t="n">
         <v>90</v>
       </c>
+      <c r="GX15" t="n">
+        <v>66</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>62</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10256,6 +10391,15 @@
       <c r="GW16" t="n">
         <v>37</v>
       </c>
+      <c r="GX16" t="n">
+        <v>32</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>60</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10875,6 +11019,15 @@
       <c r="GW17" t="n">
         <v>23</v>
       </c>
+      <c r="GX17" t="n">
+        <v>35</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>34</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11494,6 +11647,15 @@
       <c r="GW18" t="n">
         <v>19</v>
       </c>
+      <c r="GX18" t="n">
+        <v>15</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>19</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12113,6 +12275,15 @@
       <c r="GW19" t="n">
         <v>18</v>
       </c>
+      <c r="GX19" t="n">
+        <v>22</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12732,6 +12903,15 @@
       <c r="GW20" t="n">
         <v>11</v>
       </c>
+      <c r="GX20" t="n">
+        <v>11</v>
+      </c>
+      <c r="GY20" t="n">
+        <v>12</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13351,6 +13531,15 @@
       <c r="GW21" t="n">
         <v>7</v>
       </c>
+      <c r="GX21" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY21" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13970,6 +14159,15 @@
       <c r="GW22" t="n">
         <v>6</v>
       </c>
+      <c r="GX22" t="n">
+        <v>7</v>
+      </c>
+      <c r="GY22" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14589,6 +14787,15 @@
       <c r="GW23" t="n">
         <v>1</v>
       </c>
+      <c r="GX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15208,6 +15415,15 @@
       <c r="GW24" t="n">
         <v>18</v>
       </c>
+      <c r="GX24" t="n">
+        <v>18</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>18</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -15827,6 +16043,15 @@
       <c r="GW25" t="n">
         <v>61.1</v>
       </c>
+      <c r="GX25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>92.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16446,6 +16671,15 @@
       <c r="GW26" t="n">
         <v>26.18</v>
       </c>
+      <c r="GX26" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17065,6 +17299,15 @@
       <c r="GW27" t="n">
         <v>16</v>
       </c>
+      <c r="GX27" t="n">
+        <v>15</v>
+      </c>
+      <c r="GY27" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="GZ27" t="n">
+        <v>22.62</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17684,6 +17927,15 @@
       <c r="GW28" t="n">
         <v>26</v>
       </c>
+      <c r="GX28" t="n">
+        <v>30</v>
+      </c>
+      <c r="GY28" t="n">
+        <v>36</v>
+      </c>
+      <c r="GZ28" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18303,6 +18555,15 @@
       <c r="GW29" t="n">
         <v>37</v>
       </c>
+      <c r="GX29" t="n">
+        <v>41</v>
+      </c>
+      <c r="GY29" t="n">
+        <v>59</v>
+      </c>
+      <c r="GZ29" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -18922,6 +19183,15 @@
       <c r="GW30" t="n">
         <v>25</v>
       </c>
+      <c r="GX30" t="n">
+        <v>31</v>
+      </c>
+      <c r="GY30" t="n">
+        <v>31</v>
+      </c>
+      <c r="GZ30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19541,6 +19811,15 @@
       <c r="GW31" t="n">
         <v>40</v>
       </c>
+      <c r="GX31" t="n">
+        <v>40</v>
+      </c>
+      <c r="GY31" t="n">
+        <v>35</v>
+      </c>
+      <c r="GZ31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20160,6 +20439,15 @@
       <c r="GW32" t="n">
         <v>2.22</v>
       </c>
+      <c r="GX32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="GY32" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="GZ32" t="n">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -20779,6 +21067,15 @@
       <c r="GW33" t="n">
         <v>3.64</v>
       </c>
+      <c r="GX33" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="GY33" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="GZ33" t="n">
+        <v>3.42</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21398,6 +21695,15 @@
       <c r="GW34" t="n">
         <v>42.5</v>
       </c>
+      <c r="GX34" t="n">
+        <v>45</v>
+      </c>
+      <c r="GY34" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="GZ34" t="n">
+        <v>31.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22017,6 +22323,15 @@
       <c r="GW35" t="n">
         <v>27.5</v>
       </c>
+      <c r="GX35" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="GY35" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="GZ35" t="n">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22636,6 +22951,15 @@
       <c r="GW36" t="n">
         <v>188</v>
       </c>
+      <c r="GX36" t="n">
+        <v>188</v>
+      </c>
+      <c r="GY36" t="n">
+        <v>188</v>
+      </c>
+      <c r="GZ36" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23255,6 +23579,15 @@
       <c r="GW37" t="n">
         <v>86</v>
       </c>
+      <c r="GX37" t="n">
+        <v>86</v>
+      </c>
+      <c r="GY37" t="n">
+        <v>86</v>
+      </c>
+      <c r="GZ37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -23874,6 +24207,15 @@
       <c r="GW38" t="n">
         <v>24.66</v>
       </c>
+      <c r="GX38" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="GY38" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="GZ38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24493,6 +24835,15 @@
       <c r="GW39" t="n">
         <v>76.7</v>
       </c>
+      <c r="GX39" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="GY39" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="GZ39" t="n">
+        <v>83.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25112,6 +25463,15 @@
       <c r="GW40" t="n">
         <v>9</v>
       </c>
+      <c r="GX40" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY40" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -25731,6 +26091,15 @@
       <c r="GW41" t="n">
         <v>7</v>
       </c>
+      <c r="GX41" t="n">
+        <v>8</v>
+      </c>
+      <c r="GY41" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26350,6 +26719,15 @@
       <c r="GW42" t="n">
         <v>3</v>
       </c>
+      <c r="GX42" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY42" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -26969,6 +27347,15 @@
       <c r="GW43" t="n">
         <v>3</v>
       </c>
+      <c r="GX43" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY43" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27588,6 +27975,15 @@
       <c r="GW44" t="n">
         <v>101</v>
       </c>
+      <c r="GX44" t="n">
+        <v>111</v>
+      </c>
+      <c r="GY44" t="n">
+        <v>119</v>
+      </c>
+      <c r="GZ44" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28207,6 +28603,15 @@
       <c r="GW45" t="n">
         <v>185</v>
       </c>
+      <c r="GX45" t="n">
+        <v>151</v>
+      </c>
+      <c r="GY45" t="n">
+        <v>130</v>
+      </c>
+      <c r="GZ45" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -28826,6 +29231,15 @@
       <c r="GW46" t="n">
         <v>220</v>
       </c>
+      <c r="GX46" t="n">
+        <v>194</v>
+      </c>
+      <c r="GY46" t="n">
+        <v>175</v>
+      </c>
+      <c r="GZ46" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29445,6 +29859,15 @@
       <c r="GW47" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="GX47" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="GY47" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="GZ47" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30064,6 +30487,15 @@
       <c r="GW48" t="n">
         <v>37</v>
       </c>
+      <c r="GX48" t="n">
+        <v>41</v>
+      </c>
+      <c r="GY48" t="n">
+        <v>59</v>
+      </c>
+      <c r="GZ48" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -30683,6 +31115,15 @@
       <c r="GW49" t="n">
         <v>14</v>
       </c>
+      <c r="GX49" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY49" t="n">
+        <v>9</v>
+      </c>
+      <c r="GZ49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31302,6 +31743,15 @@
       <c r="GW50" t="n">
         <v>18</v>
       </c>
+      <c r="GX50" t="n">
+        <v>7</v>
+      </c>
+      <c r="GY50" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -31921,6 +32371,15 @@
       <c r="GW51" t="n">
         <v>26</v>
       </c>
+      <c r="GX51" t="n">
+        <v>30</v>
+      </c>
+      <c r="GY51" t="n">
+        <v>36</v>
+      </c>
+      <c r="GZ51" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32540,6 +32999,15 @@
       <c r="GW52" t="n">
         <v>25</v>
       </c>
+      <c r="GX52" t="n">
+        <v>31</v>
+      </c>
+      <c r="GY52" t="n">
+        <v>31</v>
+      </c>
+      <c r="GZ52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33159,6 +33627,15 @@
       <c r="GW53" t="n">
         <v>35</v>
       </c>
+      <c r="GX53" t="n">
+        <v>33</v>
+      </c>
+      <c r="GY53" t="n">
+        <v>38</v>
+      </c>
+      <c r="GZ53" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33778,6 +34255,15 @@
       <c r="GW54" t="n">
         <v>7</v>
       </c>
+      <c r="GX54" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34397,6 +34883,15 @@
       <c r="GW55" t="n">
         <v>7</v>
       </c>
+      <c r="GX55" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY55" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35016,6 +35511,15 @@
       <c r="GW56" t="n">
         <v>63.6</v>
       </c>
+      <c r="GX56" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="GY56" t="n">
+        <v>50</v>
+      </c>
+      <c r="GZ56" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -35635,6 +36139,15 @@
       <c r="GW57" t="n">
         <v>172</v>
       </c>
+      <c r="GX57" t="n">
+        <v>181</v>
+      </c>
+      <c r="GY57" t="n">
+        <v>166</v>
+      </c>
+      <c r="GZ57" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36254,6 +36767,15 @@
       <c r="GW58" t="n">
         <v>95</v>
       </c>
+      <c r="GX58" t="n">
+        <v>112</v>
+      </c>
+      <c r="GY58" t="n">
+        <v>120</v>
+      </c>
+      <c r="GZ58" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -36873,6 +37395,15 @@
       <c r="GW59" t="n">
         <v>267</v>
       </c>
+      <c r="GX59" t="n">
+        <v>293</v>
+      </c>
+      <c r="GY59" t="n">
+        <v>286</v>
+      </c>
+      <c r="GZ59" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -37492,6 +38023,15 @@
       <c r="GW60" t="n">
         <v>1.81</v>
       </c>
+      <c r="GX60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="GY60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="GZ60" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38111,6 +38651,15 @@
       <c r="GW61" t="n">
         <v>84</v>
       </c>
+      <c r="GX61" t="n">
+        <v>89</v>
+      </c>
+      <c r="GY61" t="n">
+        <v>62</v>
+      </c>
+      <c r="GZ61" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -38730,6 +39279,15 @@
       <c r="GW62" t="n">
         <v>36</v>
       </c>
+      <c r="GX62" t="n">
+        <v>33</v>
+      </c>
+      <c r="GY62" t="n">
+        <v>49</v>
+      </c>
+      <c r="GZ62" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39349,6 +39907,15 @@
       <c r="GW63" t="n">
         <v>26</v>
       </c>
+      <c r="GX63" t="n">
+        <v>27</v>
+      </c>
+      <c r="GY63" t="n">
+        <v>29</v>
+      </c>
+      <c r="GZ63" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -39968,6 +40535,15 @@
       <c r="GW64" t="n">
         <v>18</v>
       </c>
+      <c r="GX64" t="n">
+        <v>22</v>
+      </c>
+      <c r="GY64" t="n">
+        <v>29</v>
+      </c>
+      <c r="GZ64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -40587,6 +41163,15 @@
       <c r="GW65" t="n">
         <v>19</v>
       </c>
+      <c r="GX65" t="n">
+        <v>15</v>
+      </c>
+      <c r="GY65" t="n">
+        <v>19</v>
+      </c>
+      <c r="GZ65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41206,6 +41791,15 @@
       <c r="GW66" t="n">
         <v>8</v>
       </c>
+      <c r="GX66" t="n">
+        <v>12</v>
+      </c>
+      <c r="GY66" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -41825,6 +42419,15 @@
       <c r="GW67" t="n">
         <v>5</v>
       </c>
+      <c r="GX67" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY67" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42444,6 +43047,15 @@
       <c r="GW68" t="n">
         <v>6</v>
       </c>
+      <c r="GX68" t="n">
+        <v>5</v>
+      </c>
+      <c r="GY68" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43063,6 +43675,15 @@
       <c r="GW69" t="n">
         <v>1</v>
       </c>
+      <c r="GX69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY69" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -43682,6 +44303,15 @@
       <c r="GW70" t="n">
         <v>15</v>
       </c>
+      <c r="GX70" t="n">
+        <v>19</v>
+      </c>
+      <c r="GY70" t="n">
+        <v>15</v>
+      </c>
+      <c r="GZ70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44301,6 +44931,15 @@
       <c r="GW71" t="n">
         <v>53.3</v>
       </c>
+      <c r="GX71" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="GY71" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="GZ71" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -44920,6 +45559,15 @@
       <c r="GW72" t="n">
         <v>33.38</v>
       </c>
+      <c r="GX72" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="GY72" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="GZ72" t="n">
+        <v>44.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -45539,6 +46187,15 @@
       <c r="GW73" t="n">
         <v>17.8</v>
       </c>
+      <c r="GX73" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="GY73" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="GZ73" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46158,6 +46815,15 @@
       <c r="GW74" t="n">
         <v>22</v>
       </c>
+      <c r="GX74" t="n">
+        <v>30</v>
+      </c>
+      <c r="GY74" t="n">
+        <v>31</v>
+      </c>
+      <c r="GZ74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -46777,6 +47443,15 @@
       <c r="GW75" t="n">
         <v>51</v>
       </c>
+      <c r="GX75" t="n">
+        <v>40</v>
+      </c>
+      <c r="GY75" t="n">
+        <v>51</v>
+      </c>
+      <c r="GZ75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -47396,6 +48071,15 @@
       <c r="GW76" t="n">
         <v>29</v>
       </c>
+      <c r="GX76" t="n">
+        <v>28</v>
+      </c>
+      <c r="GY76" t="n">
+        <v>23</v>
+      </c>
+      <c r="GZ76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48015,6 +48699,15 @@
       <c r="GW77" t="n">
         <v>33</v>
       </c>
+      <c r="GX77" t="n">
+        <v>43</v>
+      </c>
+      <c r="GY77" t="n">
+        <v>40</v>
+      </c>
+      <c r="GZ77" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -48634,6 +49327,15 @@
       <c r="GW78" t="n">
         <v>2.2</v>
       </c>
+      <c r="GX78" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="GY78" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="GZ78" t="n">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49253,6 +49955,15 @@
       <c r="GW79" t="n">
         <v>4.12</v>
       </c>
+      <c r="GX79" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="GY79" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -49872,6 +50583,15 @@
       <c r="GW80" t="n">
         <v>42.4</v>
       </c>
+      <c r="GX80" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="GY80" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="GZ80" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -50491,6 +51211,15 @@
       <c r="GW81" t="n">
         <v>24.2</v>
       </c>
+      <c r="GX81" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="GY81" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ81" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51110,6 +51839,15 @@
       <c r="GW82" t="n">
         <v>188.6</v>
       </c>
+      <c r="GX82" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="GY82" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="GZ82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -51729,6 +52467,15 @@
       <c r="GW83" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="GX83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="GY83" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="GZ83" t="n">
+        <v>84.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -52348,6 +53095,15 @@
       <c r="GW84" t="n">
         <v>26</v>
       </c>
+      <c r="GX84" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="GY84" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="GZ84" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -52967,6 +53723,15 @@
       <c r="GW85" t="n">
         <v>105.2</v>
       </c>
+      <c r="GX85" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="GY85" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="GZ85" t="n">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -53586,6 +54351,15 @@
       <c r="GW86" t="n">
         <v>8</v>
       </c>
+      <c r="GX86" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY86" t="n">
+        <v>10</v>
+      </c>
+      <c r="GZ86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54205,6 +54979,15 @@
       <c r="GW87" t="n">
         <v>5</v>
       </c>
+      <c r="GX87" t="n">
+        <v>7</v>
+      </c>
+      <c r="GY87" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -54824,6 +55607,15 @@
       <c r="GW88" t="n">
         <v>4</v>
       </c>
+      <c r="GX88" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY88" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55443,6 +56235,15 @@
       <c r="GW89" t="n">
         <v>5</v>
       </c>
+      <c r="GX89" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY89" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56062,6 +56863,15 @@
       <c r="GW90" t="n">
         <v>100</v>
       </c>
+      <c r="GX90" t="n">
+        <v>106</v>
+      </c>
+      <c r="GY90" t="n">
+        <v>114</v>
+      </c>
+      <c r="GZ90" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -56681,6 +57491,15 @@
       <c r="GW91" t="n">
         <v>168</v>
       </c>
+      <c r="GX91" t="n">
+        <v>184</v>
+      </c>
+      <c r="GY91" t="n">
+        <v>165</v>
+      </c>
+      <c r="GZ91" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -57300,6 +58119,15 @@
       <c r="GW92" t="n">
         <v>204</v>
       </c>
+      <c r="GX92" t="n">
+        <v>229</v>
+      </c>
+      <c r="GY92" t="n">
+        <v>204</v>
+      </c>
+      <c r="GZ92" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -57919,6 +58747,15 @@
       <c r="GW93" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="GX93" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="GY93" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="GZ93" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -58538,6 +59375,15 @@
       <c r="GW94" t="n">
         <v>51</v>
       </c>
+      <c r="GX94" t="n">
+        <v>40</v>
+      </c>
+      <c r="GY94" t="n">
+        <v>51</v>
+      </c>
+      <c r="GZ94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -59157,6 +60003,15 @@
       <c r="GW95" t="n">
         <v>13</v>
       </c>
+      <c r="GX95" t="n">
+        <v>10</v>
+      </c>
+      <c r="GY95" t="n">
+        <v>13</v>
+      </c>
+      <c r="GZ95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -59776,6 +60631,15 @@
       <c r="GW96" t="n">
         <v>10</v>
       </c>
+      <c r="GX96" t="n">
+        <v>13</v>
+      </c>
+      <c r="GY96" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -60395,6 +61259,15 @@
       <c r="GW97" t="n">
         <v>22</v>
       </c>
+      <c r="GX97" t="n">
+        <v>30</v>
+      </c>
+      <c r="GY97" t="n">
+        <v>31</v>
+      </c>
+      <c r="GZ97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61014,6 +61887,15 @@
       <c r="GW98" t="n">
         <v>29</v>
       </c>
+      <c r="GX98" t="n">
+        <v>28</v>
+      </c>
+      <c r="GY98" t="n">
+        <v>23</v>
+      </c>
+      <c r="GZ98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -61633,6 +62515,15 @@
       <c r="GW99" t="n">
         <v>35</v>
       </c>
+      <c r="GX99" t="n">
+        <v>41</v>
+      </c>
+      <c r="GY99" t="n">
+        <v>43</v>
+      </c>
+      <c r="GZ99" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -62252,6 +63143,15 @@
       <c r="GW100" t="n">
         <v>1</v>
       </c>
+      <c r="GX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -62871,6 +63771,15 @@
       <c r="GW101" t="n">
         <v>5</v>
       </c>
+      <c r="GX101" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY101" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -63490,6 +64399,15 @@
       <c r="GW102" t="n">
         <v>62.5</v>
       </c>
+      <c r="GX102" t="n">
+        <v>75</v>
+      </c>
+      <c r="GY102" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/St Kilda_stats.xlsx
+++ b/St Kilda_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GZ102"/>
+  <dimension ref="A1:HA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,6 +980,9 @@
       <c r="GZ1" t="n">
         <v>10231</v>
       </c>
+      <c r="HA1" t="n">
+        <v>10241</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1608,6 +1611,9 @@
       <c r="GZ2" t="n">
         <v>2020</v>
       </c>
+      <c r="HA2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2236,6 +2242,9 @@
       <c r="GZ3" t="n">
         <v>8</v>
       </c>
+      <c r="HA3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2864,6 +2873,9 @@
       <c r="GZ4" t="n">
         <v>1</v>
       </c>
+      <c r="HA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3492,6 +3504,9 @@
       <c r="GZ5" t="n">
         <v>1</v>
       </c>
+      <c r="HA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4120,6 +4135,9 @@
       <c r="GZ6" t="n">
         <v>73</v>
       </c>
+      <c r="HA6" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4748,6 +4766,9 @@
       <c r="GZ7" t="n">
         <v>44</v>
       </c>
+      <c r="HA7" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5376,6 +5397,9 @@
       <c r="GZ8" t="n">
         <v>29</v>
       </c>
+      <c r="HA8" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6004,6 +6028,9 @@
       <c r="GZ9" t="n">
         <v>1</v>
       </c>
+      <c r="HA9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6632,6 +6659,9 @@
       <c r="GZ10" t="n">
         <v>13</v>
       </c>
+      <c r="HA10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7260,6 +7290,9 @@
       <c r="GZ11" t="n">
         <v>186</v>
       </c>
+      <c r="HA11" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7888,6 +7921,9 @@
       <c r="GZ12" t="n">
         <v>108</v>
       </c>
+      <c r="HA12" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8516,6 +8552,9 @@
       <c r="GZ13" t="n">
         <v>294</v>
       </c>
+      <c r="HA13" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9144,6 +9183,9 @@
       <c r="GZ14" t="n">
         <v>1.72</v>
       </c>
+      <c r="HA14" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9772,6 +9814,9 @@
       <c r="GZ15" t="n">
         <v>63</v>
       </c>
+      <c r="HA15" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10400,6 +10445,9 @@
       <c r="GZ16" t="n">
         <v>44</v>
       </c>
+      <c r="HA16" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11028,6 +11076,9 @@
       <c r="GZ17" t="n">
         <v>40</v>
       </c>
+      <c r="HA17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11656,6 +11707,9 @@
       <c r="GZ18" t="n">
         <v>21</v>
       </c>
+      <c r="HA18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12284,6 +12338,9 @@
       <c r="GZ19" t="n">
         <v>15</v>
       </c>
+      <c r="HA19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12912,6 +12969,9 @@
       <c r="GZ20" t="n">
         <v>12</v>
       </c>
+      <c r="HA20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13540,6 +13600,9 @@
       <c r="GZ21" t="n">
         <v>4</v>
       </c>
+      <c r="HA21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14168,6 +14231,9 @@
       <c r="GZ22" t="n">
         <v>1</v>
       </c>
+      <c r="HA22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14796,6 +14862,9 @@
       <c r="GZ23" t="n">
         <v>0</v>
       </c>
+      <c r="HA23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15424,6 +15493,9 @@
       <c r="GZ24" t="n">
         <v>13</v>
       </c>
+      <c r="HA24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16052,6 +16124,9 @@
       <c r="GZ25" t="n">
         <v>92.3</v>
       </c>
+      <c r="HA25" t="n">
+        <v>57.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16680,6 +16755,9 @@
       <c r="GZ26" t="n">
         <v>24.5</v>
       </c>
+      <c r="HA26" t="n">
+        <v>20.73</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17308,6 +17386,9 @@
       <c r="GZ27" t="n">
         <v>22.62</v>
       </c>
+      <c r="HA27" t="n">
+        <v>11.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17936,6 +18017,9 @@
       <c r="GZ28" t="n">
         <v>42</v>
       </c>
+      <c r="HA28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18564,6 +18648,9 @@
       <c r="GZ29" t="n">
         <v>57</v>
       </c>
+      <c r="HA29" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19192,6 +19279,9 @@
       <c r="GZ30" t="n">
         <v>28</v>
       </c>
+      <c r="HA30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19820,6 +19910,9 @@
       <c r="GZ31" t="n">
         <v>41</v>
       </c>
+      <c r="HA31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20448,6 +20541,9 @@
       <c r="GZ32" t="n">
         <v>3.15</v>
       </c>
+      <c r="HA32" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21076,6 +21172,9 @@
       <c r="GZ33" t="n">
         <v>3.42</v>
       </c>
+      <c r="HA33" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21704,6 +21803,9 @@
       <c r="GZ34" t="n">
         <v>31.7</v>
       </c>
+      <c r="HA34" t="n">
+        <v>46.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22332,6 +22434,9 @@
       <c r="GZ35" t="n">
         <v>29.3</v>
       </c>
+      <c r="HA35" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -22960,6 +23065,9 @@
       <c r="GZ36" t="n">
         <v>188.1</v>
       </c>
+      <c r="HA36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23588,6 +23696,9 @@
       <c r="GZ37" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="HA37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24216,6 +24327,9 @@
       <c r="GZ38" t="n">
         <v>25.24</v>
       </c>
+      <c r="HA38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24844,6 +24958,9 @@
       <c r="GZ39" t="n">
         <v>83.2</v>
       </c>
+      <c r="HA39" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25472,6 +25589,9 @@
       <c r="GZ40" t="n">
         <v>8</v>
       </c>
+      <c r="HA40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26100,6 +26220,9 @@
       <c r="GZ41" t="n">
         <v>7</v>
       </c>
+      <c r="HA41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26728,6 +26851,9 @@
       <c r="GZ42" t="n">
         <v>4</v>
       </c>
+      <c r="HA42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27356,6 +27482,9 @@
       <c r="GZ43" t="n">
         <v>3</v>
       </c>
+      <c r="HA43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -27984,6 +28113,9 @@
       <c r="GZ44" t="n">
         <v>129</v>
       </c>
+      <c r="HA44" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28612,6 +28744,9 @@
       <c r="GZ45" t="n">
         <v>154</v>
       </c>
+      <c r="HA45" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29240,6 +29375,9 @@
       <c r="GZ46" t="n">
         <v>200</v>
       </c>
+      <c r="HA46" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -29868,6 +30006,9 @@
       <c r="GZ47" t="n">
         <v>68</v>
       </c>
+      <c r="HA47" t="n">
+        <v>70.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30496,6 +30637,9 @@
       <c r="GZ48" t="n">
         <v>57</v>
       </c>
+      <c r="HA48" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31124,6 +31268,9 @@
       <c r="GZ49" t="n">
         <v>6</v>
       </c>
+      <c r="HA49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31752,6 +31899,9 @@
       <c r="GZ50" t="n">
         <v>4</v>
       </c>
+      <c r="HA50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32380,6 +32530,9 @@
       <c r="GZ51" t="n">
         <v>42</v>
       </c>
+      <c r="HA51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33008,6 +33161,9 @@
       <c r="GZ52" t="n">
         <v>28</v>
       </c>
+      <c r="HA52" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33636,6 +33792,9 @@
       <c r="GZ53" t="n">
         <v>47</v>
       </c>
+      <c r="HA53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34264,6 +34423,9 @@
       <c r="GZ54" t="n">
         <v>2</v>
       </c>
+      <c r="HA54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -34892,6 +35054,9 @@
       <c r="GZ55" t="n">
         <v>4</v>
       </c>
+      <c r="HA55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35520,6 +35685,9 @@
       <c r="GZ56" t="n">
         <v>33.3</v>
       </c>
+      <c r="HA56" t="n">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36148,6 +36316,9 @@
       <c r="GZ57" t="n">
         <v>158</v>
       </c>
+      <c r="HA57" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36776,6 +36947,9 @@
       <c r="GZ58" t="n">
         <v>109</v>
       </c>
+      <c r="HA58" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37404,6 +37578,9 @@
       <c r="GZ59" t="n">
         <v>267</v>
       </c>
+      <c r="HA59" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38032,6 +38209,9 @@
       <c r="GZ60" t="n">
         <v>1.45</v>
       </c>
+      <c r="HA60" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38660,6 +38840,9 @@
       <c r="GZ61" t="n">
         <v>58</v>
       </c>
+      <c r="HA61" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39288,6 +39471,9 @@
       <c r="GZ62" t="n">
         <v>44</v>
       </c>
+      <c r="HA62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -39916,6 +40102,9 @@
       <c r="GZ63" t="n">
         <v>16</v>
       </c>
+      <c r="HA63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40544,6 +40733,9 @@
       <c r="GZ64" t="n">
         <v>15</v>
       </c>
+      <c r="HA64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41172,6 +41364,9 @@
       <c r="GZ65" t="n">
         <v>21</v>
       </c>
+      <c r="HA65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41800,6 +41995,9 @@
       <c r="GZ66" t="n">
         <v>6</v>
       </c>
+      <c r="HA66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42428,6 +42626,9 @@
       <c r="GZ67" t="n">
         <v>6</v>
       </c>
+      <c r="HA67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43056,6 +43257,9 @@
       <c r="GZ68" t="n">
         <v>7</v>
       </c>
+      <c r="HA68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43684,6 +43888,9 @@
       <c r="GZ69" t="n">
         <v>1</v>
       </c>
+      <c r="HA69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44312,6 +44519,9 @@
       <c r="GZ70" t="n">
         <v>14</v>
       </c>
+      <c r="HA70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -44940,6 +45150,9 @@
       <c r="GZ71" t="n">
         <v>42.9</v>
       </c>
+      <c r="HA71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45568,6 +45781,9 @@
       <c r="GZ72" t="n">
         <v>44.5</v>
       </c>
+      <c r="HA72" t="n">
+        <v>49.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46196,6 +46412,9 @@
       <c r="GZ73" t="n">
         <v>19.07</v>
       </c>
+      <c r="HA73" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -46824,6 +47043,9 @@
       <c r="GZ74" t="n">
         <v>30</v>
       </c>
+      <c r="HA74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47452,6 +47674,9 @@
       <c r="GZ75" t="n">
         <v>59</v>
       </c>
+      <c r="HA75" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48080,6 +48305,9 @@
       <c r="GZ76" t="n">
         <v>29</v>
       </c>
+      <c r="HA76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48708,6 +48936,9 @@
       <c r="GZ77" t="n">
         <v>36</v>
       </c>
+      <c r="HA77" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49336,6 +49567,9 @@
       <c r="GZ78" t="n">
         <v>2.57</v>
       </c>
+      <c r="HA78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -49964,6 +50198,9 @@
       <c r="GZ79" t="n">
         <v>6</v>
       </c>
+      <c r="HA79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50592,6 +50829,9 @@
       <c r="GZ80" t="n">
         <v>36.1</v>
       </c>
+      <c r="HA80" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51220,6 +51460,9 @@
       <c r="GZ81" t="n">
         <v>16.7</v>
       </c>
+      <c r="HA81" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -51848,6 +52091,9 @@
       <c r="GZ82" t="n">
         <v>188.4</v>
       </c>
+      <c r="HA82" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52476,6 +52722,9 @@
       <c r="GZ83" t="n">
         <v>84.09999999999999</v>
       </c>
+      <c r="HA83" t="n">
+        <v>83.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53104,6 +53353,9 @@
       <c r="GZ84" t="n">
         <v>25.41</v>
       </c>
+      <c r="HA84" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53732,6 +53984,9 @@
       <c r="GZ85" t="n">
         <v>104.7</v>
       </c>
+      <c r="HA85" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54360,6 +54615,9 @@
       <c r="GZ86" t="n">
         <v>8</v>
       </c>
+      <c r="HA86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -54988,6 +55246,9 @@
       <c r="GZ87" t="n">
         <v>5</v>
       </c>
+      <c r="HA87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55616,6 +55877,9 @@
       <c r="GZ88" t="n">
         <v>4</v>
       </c>
+      <c r="HA88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56244,6 +56508,9 @@
       <c r="GZ89" t="n">
         <v>5</v>
       </c>
+      <c r="HA89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -56872,6 +57139,9 @@
       <c r="GZ90" t="n">
         <v>118</v>
       </c>
+      <c r="HA90" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57500,6 +57770,9 @@
       <c r="GZ91" t="n">
         <v>146</v>
       </c>
+      <c r="HA91" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58128,6 +58401,9 @@
       <c r="GZ92" t="n">
         <v>179</v>
       </c>
+      <c r="HA92" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -58756,6 +59032,9 @@
       <c r="GZ93" t="n">
         <v>67</v>
       </c>
+      <c r="HA93" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59384,6 +59663,9 @@
       <c r="GZ94" t="n">
         <v>59</v>
       </c>
+      <c r="HA94" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60012,6 +60294,9 @@
       <c r="GZ95" t="n">
         <v>12</v>
       </c>
+      <c r="HA95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60640,6 +60925,9 @@
       <c r="GZ96" t="n">
         <v>9</v>
       </c>
+      <c r="HA96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61268,6 +61556,9 @@
       <c r="GZ97" t="n">
         <v>30</v>
       </c>
+      <c r="HA97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -61896,6 +62187,9 @@
       <c r="GZ98" t="n">
         <v>29</v>
       </c>
+      <c r="HA98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62524,6 +62818,9 @@
       <c r="GZ99" t="n">
         <v>58</v>
       </c>
+      <c r="HA99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63152,6 +63449,9 @@
       <c r="GZ100" t="n">
         <v>2</v>
       </c>
+      <c r="HA100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -63780,6 +64080,9 @@
       <c r="GZ101" t="n">
         <v>6</v>
       </c>
+      <c r="HA101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64408,8 +64711,11 @@
       <c r="GZ102" t="n">
         <v>100</v>
       </c>
+      <c r="HA102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/St Kilda_stats.xlsx
+++ b/St Kilda_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HA102"/>
+  <dimension ref="A1:HD102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +983,15 @@
       <c r="HA1" t="n">
         <v>10241</v>
       </c>
+      <c r="HB1" t="n">
+        <v>10250</v>
+      </c>
+      <c r="HC1" t="n">
+        <v>10256</v>
+      </c>
+      <c r="HD1" t="n">
+        <v>10266</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1614,6 +1623,15 @@
       <c r="HA2" t="n">
         <v>2020</v>
       </c>
+      <c r="HB2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2245,6 +2263,15 @@
       <c r="HA3" t="n">
         <v>9</v>
       </c>
+      <c r="HB3" t="n">
+        <v>10</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2876,6 +2903,15 @@
       <c r="HA4" t="n">
         <v>0</v>
       </c>
+      <c r="HB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3507,6 +3543,15 @@
       <c r="HA5" t="n">
         <v>0</v>
       </c>
+      <c r="HB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4138,6 +4183,15 @@
       <c r="HA6" t="n">
         <v>101</v>
       </c>
+      <c r="HB6" t="n">
+        <v>78</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>34</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4769,6 +4823,15 @@
       <c r="HA7" t="n">
         <v>48</v>
       </c>
+      <c r="HB7" t="n">
+        <v>74</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>93</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5400,6 +5463,15 @@
       <c r="HA8" t="n">
         <v>53</v>
       </c>
+      <c r="HB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>-59</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6031,6 +6103,15 @@
       <c r="HA9" t="n">
         <v>1</v>
       </c>
+      <c r="HB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6662,6 +6743,15 @@
       <c r="HA10" t="n">
         <v>16</v>
       </c>
+      <c r="HB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7293,6 +7383,15 @@
       <c r="HA11" t="n">
         <v>192</v>
       </c>
+      <c r="HB11" t="n">
+        <v>194</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>151</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7924,6 +8023,15 @@
       <c r="HA12" t="n">
         <v>119</v>
       </c>
+      <c r="HB12" t="n">
+        <v>119</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>116</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8555,6 +8663,15 @@
       <c r="HA13" t="n">
         <v>311</v>
       </c>
+      <c r="HB13" t="n">
+        <v>313</v>
+      </c>
+      <c r="HC13" t="n">
+        <v>267</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9186,6 +9303,15 @@
       <c r="HA14" t="n">
         <v>1.61</v>
       </c>
+      <c r="HB14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="HC14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="HD14" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9817,6 +9943,15 @@
       <c r="HA15" t="n">
         <v>70</v>
       </c>
+      <c r="HB15" t="n">
+        <v>80</v>
+      </c>
+      <c r="HC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="HD15" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10448,6 +10583,15 @@
       <c r="HA16" t="n">
         <v>73</v>
       </c>
+      <c r="HB16" t="n">
+        <v>42</v>
+      </c>
+      <c r="HC16" t="n">
+        <v>37</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11079,6 +11223,15 @@
       <c r="HA17" t="n">
         <v>35</v>
       </c>
+      <c r="HB17" t="n">
+        <v>28</v>
+      </c>
+      <c r="HC17" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11710,6 +11863,15 @@
       <c r="HA18" t="n">
         <v>15</v>
       </c>
+      <c r="HB18" t="n">
+        <v>18</v>
+      </c>
+      <c r="HC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12341,6 +12503,15 @@
       <c r="HA19" t="n">
         <v>17</v>
       </c>
+      <c r="HB19" t="n">
+        <v>19</v>
+      </c>
+      <c r="HC19" t="n">
+        <v>14</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12972,6 +13143,15 @@
       <c r="HA20" t="n">
         <v>15</v>
       </c>
+      <c r="HB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="HC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13603,6 +13783,15 @@
       <c r="HA21" t="n">
         <v>13</v>
       </c>
+      <c r="HB21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC21" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14234,6 +14423,15 @@
       <c r="HA22" t="n">
         <v>10</v>
       </c>
+      <c r="HB22" t="n">
+        <v>4</v>
+      </c>
+      <c r="HC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14865,6 +15063,15 @@
       <c r="HA23" t="n">
         <v>1</v>
       </c>
+      <c r="HB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC23" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -15496,6 +15703,15 @@
       <c r="HA24" t="n">
         <v>26</v>
       </c>
+      <c r="HB24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HC24" t="n">
+        <v>14</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -16127,6 +16343,15 @@
       <c r="HA25" t="n">
         <v>57.7</v>
       </c>
+      <c r="HB25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="HC25" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="HD25" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -16758,6 +16983,15 @@
       <c r="HA26" t="n">
         <v>20.73</v>
       </c>
+      <c r="HB26" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="HC26" t="n">
+        <v>66.75</v>
+      </c>
+      <c r="HD26" t="n">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17389,6 +17623,15 @@
       <c r="HA27" t="n">
         <v>11.96</v>
       </c>
+      <c r="HB27" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="HC27" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="HD27" t="n">
+        <v>16.56</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -18020,6 +18263,15 @@
       <c r="HA28" t="n">
         <v>38</v>
       </c>
+      <c r="HB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="HC28" t="n">
+        <v>31</v>
+      </c>
+      <c r="HD28" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -18651,6 +18903,15 @@
       <c r="HA29" t="n">
         <v>55</v>
       </c>
+      <c r="HB29" t="n">
+        <v>44</v>
+      </c>
+      <c r="HC29" t="n">
+        <v>36</v>
+      </c>
+      <c r="HD29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -19282,6 +19543,15 @@
       <c r="HA30" t="n">
         <v>29</v>
       </c>
+      <c r="HB30" t="n">
+        <v>39</v>
+      </c>
+      <c r="HC30" t="n">
+        <v>25</v>
+      </c>
+      <c r="HD30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -19913,6 +20183,15 @@
       <c r="HA31" t="n">
         <v>54</v>
       </c>
+      <c r="HB31" t="n">
+        <v>47</v>
+      </c>
+      <c r="HC31" t="n">
+        <v>43</v>
+      </c>
+      <c r="HD31" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -20544,6 +20823,15 @@
       <c r="HA32" t="n">
         <v>2.08</v>
       </c>
+      <c r="HB32" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="HC32" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="HD32" t="n">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21175,6 +21463,15 @@
       <c r="HA33" t="n">
         <v>3.6</v>
       </c>
+      <c r="HB33" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="HC33" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="HD33" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21806,6 +22103,15 @@
       <c r="HA34" t="n">
         <v>46.3</v>
       </c>
+      <c r="HB34" t="n">
+        <v>34</v>
+      </c>
+      <c r="HC34" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="HD34" t="n">
+        <v>43.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -22437,6 +22743,15 @@
       <c r="HA35" t="n">
         <v>27.8</v>
       </c>
+      <c r="HB35" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="HC35" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="HD35" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -23068,6 +23383,15 @@
       <c r="HA36" t="n">
         <v>188.7</v>
       </c>
+      <c r="HB36" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="HC36" t="n">
+        <v>188</v>
+      </c>
+      <c r="HD36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -23699,6 +24023,15 @@
       <c r="HA37" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="HB37" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="HC37" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="HD37" t="n">
+        <v>84.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -24330,6 +24663,15 @@
       <c r="HA38" t="n">
         <v>25.16</v>
       </c>
+      <c r="HB38" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="HC38" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="HD38" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -24961,6 +25303,15 @@
       <c r="HA39" t="n">
         <v>83.3</v>
       </c>
+      <c r="HB39" t="n">
+        <v>73</v>
+      </c>
+      <c r="HC39" t="n">
+        <v>67</v>
+      </c>
+      <c r="HD39" t="n">
+        <v>77.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -25592,6 +25943,15 @@
       <c r="HA40" t="n">
         <v>9</v>
       </c>
+      <c r="HB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="HC40" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -26223,6 +26583,15 @@
       <c r="HA41" t="n">
         <v>6</v>
       </c>
+      <c r="HB41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HC41" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -26854,6 +27223,15 @@
       <c r="HA42" t="n">
         <v>3</v>
       </c>
+      <c r="HB42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HC42" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -27485,6 +27863,15 @@
       <c r="HA43" t="n">
         <v>4</v>
       </c>
+      <c r="HB43" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC43" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -28116,6 +28503,15 @@
       <c r="HA44" t="n">
         <v>132</v>
       </c>
+      <c r="HB44" t="n">
+        <v>131</v>
+      </c>
+      <c r="HC44" t="n">
+        <v>119</v>
+      </c>
+      <c r="HD44" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -28747,6 +29143,15 @@
       <c r="HA45" t="n">
         <v>174</v>
       </c>
+      <c r="HB45" t="n">
+        <v>182</v>
+      </c>
+      <c r="HC45" t="n">
+        <v>152</v>
+      </c>
+      <c r="HD45" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -29378,6 +29783,15 @@
       <c r="HA46" t="n">
         <v>218</v>
       </c>
+      <c r="HB46" t="n">
+        <v>227</v>
+      </c>
+      <c r="HC46" t="n">
+        <v>173</v>
+      </c>
+      <c r="HD46" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -30009,6 +30423,15 @@
       <c r="HA47" t="n">
         <v>70.09999999999999</v>
       </c>
+      <c r="HB47" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="HC47" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="HD47" t="n">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -30640,6 +31063,15 @@
       <c r="HA48" t="n">
         <v>55</v>
       </c>
+      <c r="HB48" t="n">
+        <v>44</v>
+      </c>
+      <c r="HC48" t="n">
+        <v>36</v>
+      </c>
+      <c r="HD48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31271,6 +31703,15 @@
       <c r="HA49" t="n">
         <v>13</v>
       </c>
+      <c r="HB49" t="n">
+        <v>14</v>
+      </c>
+      <c r="HC49" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31902,6 +32343,15 @@
       <c r="HA50" t="n">
         <v>10</v>
       </c>
+      <c r="HB50" t="n">
+        <v>8</v>
+      </c>
+      <c r="HC50" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32533,6 +32983,15 @@
       <c r="HA51" t="n">
         <v>38</v>
       </c>
+      <c r="HB51" t="n">
+        <v>21</v>
+      </c>
+      <c r="HC51" t="n">
+        <v>31</v>
+      </c>
+      <c r="HD51" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33164,6 +33623,15 @@
       <c r="HA52" t="n">
         <v>29</v>
       </c>
+      <c r="HB52" t="n">
+        <v>39</v>
+      </c>
+      <c r="HC52" t="n">
+        <v>25</v>
+      </c>
+      <c r="HD52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33795,6 +34263,15 @@
       <c r="HA53" t="n">
         <v>48</v>
       </c>
+      <c r="HB53" t="n">
+        <v>53</v>
+      </c>
+      <c r="HC53" t="n">
+        <v>47</v>
+      </c>
+      <c r="HD53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -34426,6 +34903,15 @@
       <c r="HA54" t="n">
         <v>11</v>
       </c>
+      <c r="HB54" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC54" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -35057,6 +35543,15 @@
       <c r="HA55" t="n">
         <v>13</v>
       </c>
+      <c r="HB55" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC55" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -35688,6 +36183,15 @@
       <c r="HA56" t="n">
         <v>86.7</v>
       </c>
+      <c r="HB56" t="n">
+        <v>50</v>
+      </c>
+      <c r="HC56" t="n">
+        <v>75</v>
+      </c>
+      <c r="HD56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -36319,6 +36823,15 @@
       <c r="HA57" t="n">
         <v>167</v>
       </c>
+      <c r="HB57" t="n">
+        <v>179</v>
+      </c>
+      <c r="HC57" t="n">
+        <v>197</v>
+      </c>
+      <c r="HD57" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -36950,6 +37463,15 @@
       <c r="HA58" t="n">
         <v>130</v>
       </c>
+      <c r="HB58" t="n">
+        <v>135</v>
+      </c>
+      <c r="HC58" t="n">
+        <v>126</v>
+      </c>
+      <c r="HD58" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -37581,6 +38103,15 @@
       <c r="HA59" t="n">
         <v>297</v>
       </c>
+      <c r="HB59" t="n">
+        <v>314</v>
+      </c>
+      <c r="HC59" t="n">
+        <v>323</v>
+      </c>
+      <c r="HD59" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -38212,6 +38743,15 @@
       <c r="HA60" t="n">
         <v>1.28</v>
       </c>
+      <c r="HB60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="HC60" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="HD60" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -38843,6 +39383,15 @@
       <c r="HA61" t="n">
         <v>52</v>
       </c>
+      <c r="HB61" t="n">
+        <v>52</v>
+      </c>
+      <c r="HC61" t="n">
+        <v>100</v>
+      </c>
+      <c r="HD61" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -39474,6 +40023,15 @@
       <c r="HA62" t="n">
         <v>51</v>
       </c>
+      <c r="HB62" t="n">
+        <v>51</v>
+      </c>
+      <c r="HC62" t="n">
+        <v>60</v>
+      </c>
+      <c r="HD62" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -40105,6 +40663,15 @@
       <c r="HA63" t="n">
         <v>37</v>
       </c>
+      <c r="HB63" t="n">
+        <v>27</v>
+      </c>
+      <c r="HC63" t="n">
+        <v>30</v>
+      </c>
+      <c r="HD63" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -40736,6 +41303,15 @@
       <c r="HA64" t="n">
         <v>17</v>
       </c>
+      <c r="HB64" t="n">
+        <v>19</v>
+      </c>
+      <c r="HC64" t="n">
+        <v>14</v>
+      </c>
+      <c r="HD64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41367,6 +41943,15 @@
       <c r="HA65" t="n">
         <v>15</v>
       </c>
+      <c r="HB65" t="n">
+        <v>18</v>
+      </c>
+      <c r="HC65" t="n">
+        <v>13</v>
+      </c>
+      <c r="HD65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41998,6 +42583,15 @@
       <c r="HA66" t="n">
         <v>6</v>
       </c>
+      <c r="HB66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HC66" t="n">
+        <v>14</v>
+      </c>
+      <c r="HD66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42629,6 +43223,15 @@
       <c r="HA67" t="n">
         <v>4</v>
       </c>
+      <c r="HB67" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC67" t="n">
+        <v>9</v>
+      </c>
+      <c r="HD67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -43260,6 +43863,15 @@
       <c r="HA68" t="n">
         <v>10</v>
       </c>
+      <c r="HB68" t="n">
+        <v>7</v>
+      </c>
+      <c r="HC68" t="n">
+        <v>8</v>
+      </c>
+      <c r="HD68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -43891,6 +44503,15 @@
       <c r="HA69" t="n">
         <v>2</v>
       </c>
+      <c r="HB69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -44522,6 +45143,15 @@
       <c r="HA70" t="n">
         <v>18</v>
       </c>
+      <c r="HB70" t="n">
+        <v>19</v>
+      </c>
+      <c r="HC70" t="n">
+        <v>23</v>
+      </c>
+      <c r="HD70" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -45153,6 +45783,15 @@
       <c r="HA71" t="n">
         <v>33.3</v>
       </c>
+      <c r="HB71" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="HC71" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="HD71" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -45784,6 +46423,15 @@
       <c r="HA72" t="n">
         <v>49.5</v>
       </c>
+      <c r="HB72" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="HC72" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="HD72" t="n">
+        <v>61.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -46415,6 +47063,15 @@
       <c r="HA73" t="n">
         <v>16.5</v>
       </c>
+      <c r="HB73" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="HC73" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="HD73" t="n">
+        <v>38.38</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -47046,6 +47703,15 @@
       <c r="HA74" t="n">
         <v>35</v>
       </c>
+      <c r="HB74" t="n">
+        <v>36</v>
+      </c>
+      <c r="HC74" t="n">
+        <v>31</v>
+      </c>
+      <c r="HD74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -47677,6 +48343,15 @@
       <c r="HA75" t="n">
         <v>55</v>
       </c>
+      <c r="HB75" t="n">
+        <v>47</v>
+      </c>
+      <c r="HC75" t="n">
+        <v>32</v>
+      </c>
+      <c r="HD75" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -48308,6 +48983,15 @@
       <c r="HA76" t="n">
         <v>38</v>
       </c>
+      <c r="HB76" t="n">
+        <v>34</v>
+      </c>
+      <c r="HC76" t="n">
+        <v>37</v>
+      </c>
+      <c r="HD76" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -48939,6 +49623,15 @@
       <c r="HA77" t="n">
         <v>36</v>
       </c>
+      <c r="HB77" t="n">
+        <v>51</v>
+      </c>
+      <c r="HC77" t="n">
+        <v>40</v>
+      </c>
+      <c r="HD77" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -49570,6 +50263,15 @@
       <c r="HA78" t="n">
         <v>2</v>
       </c>
+      <c r="HB78" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="HC78" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="HD78" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -50201,6 +50903,15 @@
       <c r="HA79" t="n">
         <v>6</v>
       </c>
+      <c r="HB79" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="HC79" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="HD79" t="n">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -50832,6 +51543,15 @@
       <c r="HA80" t="n">
         <v>44.4</v>
       </c>
+      <c r="HB80" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="HC80" t="n">
+        <v>55</v>
+      </c>
+      <c r="HD80" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -51463,6 +52183,15 @@
       <c r="HA81" t="n">
         <v>16.7</v>
       </c>
+      <c r="HB81" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="HC81" t="n">
+        <v>35</v>
+      </c>
+      <c r="HD81" t="n">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -52094,6 +52823,15 @@
       <c r="HA82" t="n">
         <v>186.5</v>
       </c>
+      <c r="HB82" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="HC82" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="HD82" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -52725,6 +53463,15 @@
       <c r="HA83" t="n">
         <v>83.8</v>
       </c>
+      <c r="HB83" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="HC83" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="HD83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -53356,6 +54103,15 @@
       <c r="HA84" t="n">
         <v>24.49</v>
       </c>
+      <c r="HB84" t="n">
+        <v>24</v>
+      </c>
+      <c r="HC84" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="HD84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -53987,6 +54743,15 @@
       <c r="HA85" t="n">
         <v>77</v>
       </c>
+      <c r="HB85" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="HC85" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="HD85" t="n">
+        <v>67.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -54618,6 +55383,15 @@
       <c r="HA86" t="n">
         <v>8</v>
       </c>
+      <c r="HB86" t="n">
+        <v>9</v>
+      </c>
+      <c r="HC86" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -55249,6 +56023,15 @@
       <c r="HA87" t="n">
         <v>6</v>
       </c>
+      <c r="HB87" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC87" t="n">
+        <v>5</v>
+      </c>
+      <c r="HD87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -55880,6 +56663,15 @@
       <c r="HA88" t="n">
         <v>6</v>
       </c>
+      <c r="HB88" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC88" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -56511,6 +57303,15 @@
       <c r="HA89" t="n">
         <v>2</v>
       </c>
+      <c r="HB89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC89" t="n">
+        <v>10</v>
+      </c>
+      <c r="HD89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -57142,6 +57943,15 @@
       <c r="HA90" t="n">
         <v>131</v>
       </c>
+      <c r="HB90" t="n">
+        <v>136</v>
+      </c>
+      <c r="HC90" t="n">
+        <v>110</v>
+      </c>
+      <c r="HD90" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -57773,6 +58583,15 @@
       <c r="HA91" t="n">
         <v>161</v>
       </c>
+      <c r="HB91" t="n">
+        <v>168</v>
+      </c>
+      <c r="HC91" t="n">
+        <v>205</v>
+      </c>
+      <c r="HD91" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -58404,6 +59223,15 @@
       <c r="HA92" t="n">
         <v>187</v>
       </c>
+      <c r="HB92" t="n">
+        <v>220</v>
+      </c>
+      <c r="HC92" t="n">
+        <v>249</v>
+      </c>
+      <c r="HD92" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -59035,6 +59863,15 @@
       <c r="HA93" t="n">
         <v>63</v>
       </c>
+      <c r="HB93" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="HC93" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="HD93" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -59666,6 +60503,15 @@
       <c r="HA94" t="n">
         <v>55</v>
       </c>
+      <c r="HB94" t="n">
+        <v>47</v>
+      </c>
+      <c r="HC94" t="n">
+        <v>32</v>
+      </c>
+      <c r="HD94" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -60297,6 +61143,15 @@
       <c r="HA95" t="n">
         <v>8</v>
       </c>
+      <c r="HB95" t="n">
+        <v>11</v>
+      </c>
+      <c r="HC95" t="n">
+        <v>14</v>
+      </c>
+      <c r="HD95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -60928,6 +61783,15 @@
       <c r="HA96" t="n">
         <v>11</v>
       </c>
+      <c r="HB96" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC96" t="n">
+        <v>14</v>
+      </c>
+      <c r="HD96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -61559,6 +62423,15 @@
       <c r="HA97" t="n">
         <v>35</v>
       </c>
+      <c r="HB97" t="n">
+        <v>36</v>
+      </c>
+      <c r="HC97" t="n">
+        <v>31</v>
+      </c>
+      <c r="HD97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -62190,6 +63063,15 @@
       <c r="HA98" t="n">
         <v>38</v>
       </c>
+      <c r="HB98" t="n">
+        <v>34</v>
+      </c>
+      <c r="HC98" t="n">
+        <v>37</v>
+      </c>
+      <c r="HD98" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -62821,6 +63703,15 @@
       <c r="HA99" t="n">
         <v>54</v>
       </c>
+      <c r="HB99" t="n">
+        <v>37</v>
+      </c>
+      <c r="HC99" t="n">
+        <v>38</v>
+      </c>
+      <c r="HD99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -63452,6 +64343,15 @@
       <c r="HA100" t="n">
         <v>0</v>
       </c>
+      <c r="HB100" t="n">
+        <v>2</v>
+      </c>
+      <c r="HC100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -64083,6 +64983,15 @@
       <c r="HA101" t="n">
         <v>4</v>
       </c>
+      <c r="HB101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC101" t="n">
+        <v>9</v>
+      </c>
+      <c r="HD101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -64714,8 +65623,17 @@
       <c r="HA102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HB102" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="HC102" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="HD102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>